--- a/datamining/final_data/sorted2004_nltk.xlsx
+++ b/datamining/final_data/sorted2004_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ALS2"/>
+  <dimension ref="A1:AKK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,37 +442,37 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>from</t>
+          <t>editor</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>editor</t>
+          <t>students</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>students</t>
+          <t>gifted</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>gifted</t>
+          <t>perfectionism</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>perfectionism</t>
+          <t>exceptionally</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>exceptionally</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>social</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -482,12 +482,12 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>coping</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>coping</t>
+          <t>scores</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -502,7 +502,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>scores</t>
+          <t>reading</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -512,167 +512,167 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>reading</t>
+          <t>case</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>programs</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>academically</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>development</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>academically</t>
+          <t>nongifted</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>programs</t>
+          <t>study</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>development</t>
+          <t>teachers</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>nongifted</t>
+          <t>lbs</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>student</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>lbs</t>
+          <t>college</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>college</t>
+          <t>creative</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>teachers</t>
+          <t>psychological</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
+          <t>achievement</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
           <t>talent</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>psychological</t>
-        </is>
-      </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>achievement</t>
+          <t>average</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>research</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>average</t>
+          <t>classes</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>creative</t>
+          <t>high-iq</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>spatial-temporal</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>classes</t>
+          <t>dyslexia</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>high-iq</t>
+          <t>readers</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>spatial-temporal</t>
+          <t>test</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>dyslexia</t>
+          <t>kong</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>hong</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>readers</t>
+          <t>characteristics</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>adjustment</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>characteristics</t>
+          <t>socially</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>kong</t>
+          <t>factors</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>hong</t>
+          <t>developing</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
+          <t>kindling</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
           <t>musical</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>kindling</t>
-        </is>
-      </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>developing</t>
+          <t>recognizing</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>recognizing</t>
+          <t>undergraduates</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
@@ -682,194 +682,194 @@
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>factors</t>
+          <t>education</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
+          <t>leta</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>biography</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>forgotten</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>hollingworth</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>stetter</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>voice</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
           <t>law</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>adjustment</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>undergraduates</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>iq</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>socially</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>goals</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>math</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>this</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>forgotten</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>biography</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>groups</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>black</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>voice</t>
-        </is>
-      </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>stetter</t>
+          <t>ability</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>leta</t>
+          <t>cognitive</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>hollingworth</t>
+          <t>korean</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>years</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>cognitive</t>
+          <t>group</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>groups</t>
+          <t>higher</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>giftedness</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>korean</t>
+          <t>intrinsic</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>intrinsic</t>
+          <t>elemenoe</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>giftedness</t>
+          <t>findings</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>higher</t>
+          <t>strategies</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>ability</t>
+          <t>schoolwork</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
+          <t>validity</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>parental</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
           <t>parents</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>parental</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>strategies</t>
-        </is>
-      </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>validity</t>
+          <t>reliability</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>elemenoe</t>
+          <t>provided</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>findings</t>
+          <t>nature</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>mental</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>provided</t>
+          <t>significantly</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>significantly</t>
+          <t>identified</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
+          <t>attributions</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>kaufman</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
           <t>tct-dp</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>years</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>reliability</t>
-        </is>
-      </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>teacher</t>
@@ -877,127 +877,127 @@
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>schoolwork</t>
+          <t>icmic</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>kaufman</t>
+          <t>specific</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>icmic</t>
+          <t>status</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>identified</t>
+          <t>self-concept</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>high</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>specific</t>
+          <t>prescribed</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>prescribed</t>
+          <t>related</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>related</t>
+          <t>'s</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>attributions</t>
+          <t>also</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>'s</t>
+          <t>effort</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>nature</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>self-concept</t>
+          <t>creatively</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>mental</t>
+          <t>sample</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>creatively</t>
+          <t>among</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>among</t>
+          <t>found</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>effort</t>
+          <t>often</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>used</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>cluster</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>program</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>found</t>
+          <t>peer</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>used</t>
+          <t>arab</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>arab</t>
+          <t>toward</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>investigation</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>peer</t>
+          <t>motive</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>often</t>
+          <t>health</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
@@ -1007,67 +1007,67 @@
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>two</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>age</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>toward</t>
+          <t>chinese</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>motive</t>
+          <t>school</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>investigation</t>
+          <t>males</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>participate</t>
         </is>
       </c>
       <c r="DR1" s="1" t="inlineStr">
         <is>
-          <t>chinese</t>
+          <t>distress</t>
         </is>
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
-          <t>cluster</t>
+          <t>nonverbal</t>
         </is>
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>participants</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
-          <t>health</t>
+          <t>universities</t>
         </is>
       </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>participate</t>
+          <t>institutions</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>two</t>
+          <t>precocious</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>distress</t>
+          <t>grouping</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
@@ -1077,192 +1077,192 @@
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>grouping</t>
+          <t>included</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>nonverbal</t>
+          <t>similar</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>males</t>
+          <t>failure</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>included</t>
+          <t>items</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>similar</t>
+          <t>sixth</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
+          <t>educators</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>levels</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
           <t>results</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
-        <is>
-          <t>institutions</t>
-        </is>
-      </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>parenting</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>authoritarian</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
-        <is>
-          <t>parenting</t>
-        </is>
-      </c>
-      <c r="EI1" s="1" t="inlineStr">
-        <is>
-          <t>universities</t>
-        </is>
-      </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>participants</t>
+          <t>graders</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>discussed</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>items</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
+          <t>indicated</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>interventions</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
           <t>thinking</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
-        <is>
-          <t>her</t>
-        </is>
-      </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>measure</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>profiles</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>relationships</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>examined</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
-        <is>
-          <t>graders</t>
-        </is>
-      </c>
-      <c r="EQ1" s="1" t="inlineStr">
-        <is>
-          <t>discussed</t>
-        </is>
-      </c>
-      <c r="ER1" s="1" t="inlineStr">
-        <is>
-          <t>failure</t>
-        </is>
-      </c>
-      <c r="ES1" s="1" t="inlineStr">
-        <is>
-          <t>sixth</t>
-        </is>
-      </c>
-      <c r="ET1" s="1" t="inlineStr">
-        <is>
-          <t>measure</t>
-        </is>
-      </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>interventions</t>
+          <t>implications</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>educators</t>
+          <t>self-oriented</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>indicated</t>
+          <t>scored</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>levels</t>
+          <t>may</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>precocious</t>
+          <t>time</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
+          <t>influenced</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
           <t>i.e.</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
-        <is>
-          <t>influenced</t>
-        </is>
-      </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>self-oriented</t>
+          <t>bias</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>profiles</t>
+          <t>compared</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>scored</t>
+          <t>experiences</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>areas</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>samples</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>relationships</t>
+          <t>completion</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>compared</t>
+          <t>developed</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>these</t>
+          <t>motivational</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>implications</t>
+          <t>different</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>different</t>
+          <t>article</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
@@ -1272,17 +1272,17 @@
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>motivational</t>
+          <t>relationship</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>relationship</t>
+          <t>indicate</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>developed</t>
+          <t>self-esteem</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
@@ -1292,222 +1292,222 @@
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>samples</t>
+          <t>behaviors</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>bias</t>
+          <t>writing</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>indicate</t>
+          <t>gifts</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>definition</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>performance</t>
+          <t>mixed-adaptive</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>across</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
+          <t>domains</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>pervasive</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>fantasy-proneness</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
           <t>highest</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
-        <is>
-          <t>fantasy-proneness</t>
-        </is>
-      </c>
-      <c r="FY1" s="1" t="inlineStr">
-        <is>
-          <t>definition</t>
-        </is>
-      </c>
-      <c r="FZ1" s="1" t="inlineStr">
-        <is>
-          <t>experiences</t>
-        </is>
-      </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>areas</t>
+          <t>designating</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>domains</t>
+          <t>three</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>completion</t>
+          <t>effects</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>designating</t>
+          <t>outcomes</t>
         </is>
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>writing</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>behaviors</t>
+          <t>favored</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>gifts</t>
+          <t>districts</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>districts</t>
+          <t>studies</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>favored</t>
+          <t>identity</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>effects</t>
+          <t>intelligence</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>need</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>outcomes</t>
+          <t>received</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>challenging</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>self-esteem</t>
+          <t>instruction</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>across</t>
+          <t>mathematics</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>instruction</t>
+          <t>influences</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>mathematics</t>
+          <t>discriminant</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>challenging</t>
+          <t>examine</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>success</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>received</t>
+          <t>differences</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>intelligence</t>
+          <t>purpose</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>pervasive</t>
+          <t>understanding</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>mixed-adaptive</t>
+          <t>based</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>described</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>based</t>
+          <t>legal</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>understanding</t>
+          <t>advanced</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>style</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>discriminant</t>
+          <t>analysis</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>gifted-alone</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
-          <t>described</t>
+          <t>mastery</t>
         </is>
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
-          <t>influences</t>
+          <t>choice</t>
         </is>
       </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
-          <t>identity</t>
+          <t>many</t>
         </is>
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>style</t>
+          <t>perfectionists</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>advanced</t>
+          <t>dimensions</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
@@ -1517,217 +1517,217 @@
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>cohort</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>many</t>
+          <t>review</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>differences</t>
+          <t>set</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>analysis</t>
+          <t>underlying</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
+          <t>comparison</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>interaction</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>make</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>racial</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
           <t>fifth</t>
         </is>
       </c>
-      <c r="HO1" s="1" t="inlineStr">
-        <is>
-          <t>underlying</t>
-        </is>
-      </c>
-      <c r="HP1" s="1" t="inlineStr">
-        <is>
-          <t>set</t>
-        </is>
-      </c>
-      <c r="HQ1" s="1" t="inlineStr">
-        <is>
-          <t>perfectionists</t>
-        </is>
-      </c>
-      <c r="HR1" s="1" t="inlineStr">
-        <is>
-          <t>general</t>
-        </is>
-      </c>
-      <c r="HS1" s="1" t="inlineStr">
-        <is>
-          <t>interaction</t>
-        </is>
-      </c>
-      <c r="HT1" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>dimensions</t>
+          <t>observations</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>legal</t>
+          <t>grade</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>mastery</t>
+          <t>differentiated</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>examine</t>
+          <t>factor</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
-          <t>purpose</t>
+          <t>perceptions</t>
         </is>
       </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>homogeneous</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>homogenous</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>gifted-alone</t>
+          <t>classrooms</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>cohort</t>
+          <t>proficient</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
+          <t>athleticism</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>scales</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>suburban</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>child</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>ahead</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>considered</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>awareness</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>anti-intellectualism</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>highly</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>literacy</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
           <t>brilliance</t>
         </is>
       </c>
-      <c r="IE1" s="1" t="inlineStr">
-        <is>
-          <t>observations</t>
-        </is>
-      </c>
-      <c r="IF1" s="1" t="inlineStr">
-        <is>
-          <t>homogeneous</t>
-        </is>
-      </c>
-      <c r="IG1" s="1" t="inlineStr">
-        <is>
-          <t>suburban</t>
-        </is>
-      </c>
-      <c r="IH1" s="1" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="II1" s="1" t="inlineStr">
-        <is>
-          <t>differentiated</t>
-        </is>
-      </c>
-      <c r="IJ1" s="1" t="inlineStr">
-        <is>
-          <t>classrooms</t>
-        </is>
-      </c>
-      <c r="IK1" s="1" t="inlineStr">
-        <is>
-          <t>homogenous</t>
-        </is>
-      </c>
-      <c r="IL1" s="1" t="inlineStr">
-        <is>
-          <t>considered</t>
-        </is>
-      </c>
-      <c r="IM1" s="1" t="inlineStr">
-        <is>
-          <t>comparison</t>
-        </is>
-      </c>
-      <c r="IN1" s="1" t="inlineStr">
-        <is>
-          <t>perceptions</t>
-        </is>
-      </c>
-      <c r="IO1" s="1" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
-          <t>athleticism</t>
+          <t>identifying</t>
         </is>
       </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
-          <t>grade</t>
+          <t>theory</t>
         </is>
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
-          <t>make</t>
+          <t>elementary</t>
         </is>
       </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>anti-intellectualism</t>
+          <t>researchers</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
-          <t>studies</t>
+          <t>describe</t>
         </is>
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
-          <t>factor</t>
+          <t>behaviours</t>
         </is>
       </c>
       <c r="IV1" s="1" t="inlineStr">
         <is>
-          <t>racial</t>
+          <t>dabrowski</t>
         </is>
       </c>
       <c r="IW1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>least</t>
         </is>
       </c>
       <c r="IX1" s="1" t="inlineStr">
         <is>
-          <t>proficient</t>
+          <t>opportunities</t>
         </is>
       </c>
       <c r="IY1" s="1" t="inlineStr">
         <is>
-          <t>highly</t>
+          <t>assessed</t>
         </is>
       </c>
       <c r="IZ1" s="1" t="inlineStr">
         <is>
-          <t>least</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="JA1" s="1" t="inlineStr">
@@ -1737,1004 +1737,1004 @@
       </c>
       <c r="JB1" s="1" t="inlineStr">
         <is>
-          <t>opportunities</t>
+          <t>instrument</t>
         </is>
       </c>
       <c r="JC1" s="1" t="inlineStr">
         <is>
-          <t>researchers</t>
+          <t>consisted</t>
         </is>
       </c>
       <c r="JD1" s="1" t="inlineStr">
         <is>
-          <t>read</t>
+          <t>influence</t>
         </is>
       </c>
       <c r="JE1" s="1" t="inlineStr">
         <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>normative</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
           <t>recent</t>
         </is>
       </c>
-      <c r="JF1" s="1" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-      <c r="JG1" s="1" t="inlineStr">
-        <is>
-          <t>instrument</t>
-        </is>
-      </c>
       <c r="JH1" s="1" t="inlineStr">
         <is>
-          <t>normative</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="JI1" s="1" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>european</t>
         </is>
       </c>
       <c r="JJ1" s="1" t="inlineStr">
         <is>
-          <t>identifying</t>
+          <t>achievers</t>
         </is>
       </c>
       <c r="JK1" s="1" t="inlineStr">
         <is>
-          <t>consisted</t>
+          <t>.05</t>
         </is>
       </c>
       <c r="JL1" s="1" t="inlineStr">
         <is>
-          <t>behaviours</t>
+          <t>learned</t>
         </is>
       </c>
       <c r="JM1" s="1" t="inlineStr">
         <is>
-          <t>at</t>
+          <t>series</t>
         </is>
       </c>
       <c r="JN1" s="1" t="inlineStr">
         <is>
-          <t>dabrowski</t>
+          <t>due</t>
         </is>
       </c>
       <c r="JO1" s="1" t="inlineStr">
         <is>
-          <t>describe</t>
+          <t>fourth</t>
         </is>
       </c>
       <c r="JP1" s="1" t="inlineStr">
         <is>
-          <t>awareness</t>
+          <t>applicability</t>
         </is>
       </c>
       <c r="JQ1" s="1" t="inlineStr">
         <is>
-          <t>literacy</t>
+          <t>production</t>
         </is>
       </c>
       <c r="JR1" s="1" t="inlineStr">
         <is>
-          <t>elementary</t>
+          <t>properties</t>
         </is>
       </c>
       <c r="JS1" s="1" t="inlineStr">
         <is>
-          <t>theory</t>
+          <t>psychometric</t>
         </is>
       </c>
       <c r="JT1" s="1" t="inlineStr">
         <is>
-          <t>scales</t>
+          <t>structural</t>
         </is>
       </c>
       <c r="JU1" s="1" t="inlineStr">
         <is>
-          <t>ahead</t>
+          <t>identify</t>
         </is>
       </c>
       <c r="JV1" s="1" t="inlineStr">
         <is>
-          <t>fourth</t>
+          <t>literature</t>
         </is>
       </c>
       <c r="JW1" s="1" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>design</t>
         </is>
       </c>
       <c r="JX1" s="1" t="inlineStr">
         <is>
-          <t>structural</t>
+          <t>provides</t>
         </is>
       </c>
       <c r="JY1" s="1" t="inlineStr">
         <is>
-          <t>psychometric</t>
+          <t>qualitative</t>
         </is>
       </c>
       <c r="JZ1" s="1" t="inlineStr">
         <is>
-          <t>properties</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="KA1" s="1" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>recommendations</t>
         </is>
       </c>
       <c r="KB1" s="1" t="inlineStr">
         <is>
-          <t>achievers</t>
+          <t>suggested</t>
         </is>
       </c>
       <c r="KC1" s="1" t="inlineStr">
         <is>
-          <t>due</t>
+          <t>interview</t>
         </is>
       </c>
       <c r="KD1" s="1" t="inlineStr">
         <is>
-          <t>.05</t>
+          <t>showed</t>
         </is>
       </c>
       <c r="KE1" s="1" t="inlineStr">
         <is>
-          <t>applicability</t>
+          <t>clusters</t>
         </is>
       </c>
       <c r="KF1" s="1" t="inlineStr">
         <is>
-          <t>design</t>
+          <t>avoidance</t>
         </is>
       </c>
       <c r="KG1" s="1" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>early</t>
         </is>
       </c>
       <c r="KH1" s="1" t="inlineStr">
         <is>
-          <t>influence</t>
+          <t>mixed-maladaptive</t>
         </is>
       </c>
       <c r="KI1" s="1" t="inlineStr">
         <is>
-          <t>provides</t>
+          <t>nonperfectionist</t>
         </is>
       </c>
       <c r="KJ1" s="1" t="inlineStr">
         <is>
-          <t>suggested</t>
+          <t>reported</t>
         </is>
       </c>
       <c r="KK1" s="1" t="inlineStr">
         <is>
-          <t>literature</t>
+          <t>positively</t>
         </is>
       </c>
       <c r="KL1" s="1" t="inlineStr">
         <is>
-          <t>showed</t>
+          <t>superior</t>
         </is>
       </c>
       <c r="KM1" s="1" t="inlineStr">
         <is>
-          <t>assessed</t>
+          <t>identification</t>
         </is>
       </c>
       <c r="KN1" s="1" t="inlineStr">
         <is>
-          <t>interview</t>
+          <t>competence</t>
         </is>
       </c>
       <c r="KO1" s="1" t="inlineStr">
         <is>
-          <t>qualitative</t>
+          <t>typology</t>
         </is>
       </c>
       <c r="KP1" s="1" t="inlineStr">
         <is>
-          <t>recommendations</t>
+          <t>pretest</t>
         </is>
       </c>
       <c r="KQ1" s="1" t="inlineStr">
         <is>
-          <t>series</t>
+          <t>types</t>
         </is>
       </c>
       <c r="KR1" s="1" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>elaboration</t>
         </is>
       </c>
       <c r="KS1" s="1" t="inlineStr">
         <is>
+          <t>figural</t>
+        </is>
+      </c>
+      <c r="KT1" s="1" t="inlineStr">
+        <is>
           <t>fluency</t>
         </is>
       </c>
-      <c r="KT1" s="1" t="inlineStr">
-        <is>
-          <t>figural</t>
-        </is>
-      </c>
       <c r="KU1" s="1" t="inlineStr">
         <is>
-          <t>elaboration</t>
+          <t>verbal</t>
         </is>
       </c>
       <c r="KV1" s="1" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>previous</t>
         </is>
       </c>
       <c r="KW1" s="1" t="inlineStr">
         <is>
+          <t>ranking</t>
+        </is>
+      </c>
+      <c r="KX1" s="1" t="inlineStr">
+        <is>
+          <t>problem-solving</t>
+        </is>
+      </c>
+      <c r="KY1" s="1" t="inlineStr">
+        <is>
           <t>strong</t>
         </is>
       </c>
-      <c r="KX1" s="1" t="inlineStr">
-        <is>
-          <t>early</t>
-        </is>
-      </c>
-      <c r="KY1" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="KZ1" s="1" t="inlineStr">
         <is>
-          <t>identify</t>
+          <t>current</t>
         </is>
       </c>
       <c r="LA1" s="1" t="inlineStr">
         <is>
-          <t>previous</t>
+          <t>important</t>
         </is>
       </c>
       <c r="LB1" s="1" t="inlineStr">
         <is>
-          <t>ranking</t>
+          <t>perspective</t>
         </is>
       </c>
       <c r="LC1" s="1" t="inlineStr">
         <is>
-          <t>reported</t>
+          <t>emerged</t>
         </is>
       </c>
       <c r="LD1" s="1" t="inlineStr">
         <is>
-          <t>types</t>
+          <t>explored</t>
         </is>
       </c>
       <c r="LE1" s="1" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>special</t>
         </is>
       </c>
       <c r="LF1" s="1" t="inlineStr">
         <is>
-          <t>positively</t>
+          <t>scoring</t>
         </is>
       </c>
       <c r="LG1" s="1" t="inlineStr">
         <is>
-          <t>pretest</t>
+          <t>respect</t>
         </is>
       </c>
       <c r="LH1" s="1" t="inlineStr">
         <is>
-          <t>verbal</t>
+          <t>schools</t>
         </is>
       </c>
       <c r="LI1" s="1" t="inlineStr">
         <is>
-          <t>learned</t>
+          <t>internal</t>
         </is>
       </c>
       <c r="LJ1" s="1" t="inlineStr">
         <is>
-          <t>problem-solving</t>
+          <t>statistically</t>
         </is>
       </c>
       <c r="LK1" s="1" t="inlineStr">
         <is>
-          <t>avoidance</t>
+          <t>disorders</t>
         </is>
       </c>
       <c r="LL1" s="1" t="inlineStr">
         <is>
-          <t>special</t>
+          <t>suggests</t>
         </is>
       </c>
       <c r="LM1" s="1" t="inlineStr">
         <is>
-          <t>respect</t>
+          <t>perception</t>
         </is>
       </c>
       <c r="LN1" s="1" t="inlineStr">
         <is>
-          <t>important</t>
+          <t>inventory</t>
         </is>
       </c>
       <c r="LO1" s="1" t="inlineStr">
         <is>
-          <t>internal</t>
+          <t>regarding</t>
         </is>
       </c>
       <c r="LP1" s="1" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="LQ1" s="1" t="inlineStr">
         <is>
-          <t>scoring</t>
+          <t>assess</t>
         </is>
       </c>
       <c r="LR1" s="1" t="inlineStr">
         <is>
-          <t>schools</t>
+          <t>conceptualization</t>
         </is>
       </c>
       <c r="LS1" s="1" t="inlineStr">
         <is>
-          <t>explored</t>
+          <t>childhood</t>
         </is>
       </c>
       <c r="LT1" s="1" t="inlineStr">
         <is>
-          <t>perspective</t>
+          <t>styles</t>
         </is>
       </c>
       <c r="LU1" s="1" t="inlineStr">
         <is>
-          <t>current</t>
+          <t>male</t>
         </is>
       </c>
       <c r="LV1" s="1" t="inlineStr">
         <is>
-          <t>emerged</t>
+          <t>symptom</t>
         </is>
       </c>
       <c r="LW1" s="1" t="inlineStr">
         <is>
-          <t>perception</t>
+          <t>well-being</t>
         </is>
       </c>
       <c r="LX1" s="1" t="inlineStr">
         <is>
-          <t>assess</t>
+          <t>better</t>
         </is>
       </c>
       <c r="LY1" s="1" t="inlineStr">
         <is>
-          <t>statistically</t>
+          <t>measures</t>
         </is>
       </c>
       <c r="LZ1" s="1" t="inlineStr">
         <is>
-          <t>inventory</t>
+          <t>increase</t>
         </is>
       </c>
       <c r="MA1" s="1" t="inlineStr">
         <is>
-          <t>styles</t>
+          <t>rated</t>
         </is>
       </c>
       <c r="MB1" s="1" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>designed</t>
         </is>
       </c>
       <c r="MC1" s="1" t="inlineStr">
         <is>
-          <t>conceptualization</t>
+          <t>given</t>
         </is>
       </c>
       <c r="MD1" s="1" t="inlineStr">
         <is>
-          <t>suggests</t>
+          <t>boys</t>
         </is>
       </c>
       <c r="ME1" s="1" t="inlineStr">
         <is>
-          <t>childhood</t>
+          <t>affect</t>
         </is>
       </c>
       <c r="MF1" s="1" t="inlineStr">
         <is>
-          <t>regarding</t>
+          <t>yielded</t>
         </is>
       </c>
       <c r="MG1" s="1" t="inlineStr">
         <is>
-          <t>disorders</t>
+          <t>however</t>
         </is>
       </c>
       <c r="MH1" s="1" t="inlineStr">
         <is>
-          <t>better</t>
+          <t>value</t>
         </is>
       </c>
       <c r="MI1" s="1" t="inlineStr">
         <is>
+          <t>yet</t>
+        </is>
+      </c>
+      <c r="MJ1" s="1" t="inlineStr">
+        <is>
+          <t>evidence</t>
+        </is>
+      </c>
+      <c r="MK1" s="1" t="inlineStr">
+        <is>
+          <t>bright</t>
+        </is>
+      </c>
+      <c r="ML1" s="1" t="inlineStr">
+        <is>
+          <t>taught</t>
+        </is>
+      </c>
+      <c r="MM1" s="1" t="inlineStr">
+        <is>
+          <t>attending</t>
+        </is>
+      </c>
+      <c r="MN1" s="1" t="inlineStr">
+        <is>
+          <t>leaving</t>
+        </is>
+      </c>
+      <c r="MO1" s="1" t="inlineStr">
+        <is>
+          <t>coefficients</t>
+        </is>
+      </c>
+      <c r="MP1" s="1" t="inlineStr">
+        <is>
+          <t>context</t>
+        </is>
+      </c>
+      <c r="MQ1" s="1" t="inlineStr">
+        <is>
+          <t>grades</t>
+        </is>
+      </c>
+      <c r="MR1" s="1" t="inlineStr">
+        <is>
+          <t>limited</t>
+        </is>
+      </c>
+      <c r="MS1" s="1" t="inlineStr">
+        <is>
+          <t>actively</t>
+        </is>
+      </c>
+      <c r="MT1" s="1" t="inlineStr">
+        <is>
+          <t>chronological</t>
+        </is>
+      </c>
+      <c r="MU1" s="1" t="inlineStr">
+        <is>
+          <t>additional</t>
+        </is>
+      </c>
+      <c r="MV1" s="1" t="inlineStr">
+        <is>
+          <t>awaits</t>
+        </is>
+      </c>
+      <c r="MW1" s="1" t="inlineStr">
+        <is>
+          <t>best</t>
+        </is>
+      </c>
+      <c r="MX1" s="1" t="inlineStr">
+        <is>
+          <t>assessing</t>
+        </is>
+      </c>
+      <c r="MY1" s="1" t="inlineStr">
+        <is>
+          <t>brightest</t>
+        </is>
+      </c>
+      <c r="MZ1" s="1" t="inlineStr">
+        <is>
+          <t>undergraduate</t>
+        </is>
+      </c>
+      <c r="NA1" s="1" t="inlineStr">
+        <is>
+          <t>compete</t>
+        </is>
+      </c>
+      <c r="NB1" s="1" t="inlineStr">
+        <is>
+          <t>summer</t>
+        </is>
+      </c>
+      <c r="NC1" s="1" t="inlineStr">
+        <is>
+          <t>ratings</t>
+        </is>
+      </c>
+      <c r="ND1" s="1" t="inlineStr">
+        <is>
           <t>wonder</t>
         </is>
       </c>
-      <c r="MJ1" s="1" t="inlineStr">
-        <is>
-          <t>boys</t>
-        </is>
-      </c>
-      <c r="MK1" s="1" t="inlineStr">
-        <is>
-          <t>designed</t>
-        </is>
-      </c>
-      <c r="ML1" s="1" t="inlineStr">
-        <is>
-          <t>yielded</t>
-        </is>
-      </c>
-      <c r="MM1" s="1" t="inlineStr">
-        <is>
-          <t>compete</t>
-        </is>
-      </c>
-      <c r="MN1" s="1" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
-      <c r="MO1" s="1" t="inlineStr">
-        <is>
-          <t>undergraduate</t>
-        </is>
-      </c>
-      <c r="MP1" s="1" t="inlineStr">
+      <c r="NE1" s="1" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="NF1" s="1" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="NG1" s="1" t="inlineStr">
         <is>
           <t>educational</t>
         </is>
       </c>
-      <c r="MQ1" s="1" t="inlineStr">
-        <is>
-          <t>bright</t>
-        </is>
-      </c>
-      <c r="MR1" s="1" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="MS1" s="1" t="inlineStr">
-        <is>
-          <t>clusters</t>
-        </is>
-      </c>
-      <c r="MT1" s="1" t="inlineStr">
-        <is>
-          <t>competence</t>
-        </is>
-      </c>
-      <c r="MU1" s="1" t="inlineStr">
-        <is>
-          <t>best</t>
-        </is>
-      </c>
-      <c r="MV1" s="1" t="inlineStr">
-        <is>
-          <t>mixed-maladaptive</t>
-        </is>
-      </c>
-      <c r="MW1" s="1" t="inlineStr">
-        <is>
-          <t>nonperfectionist</t>
-        </is>
-      </c>
-      <c r="MX1" s="1" t="inlineStr">
-        <is>
-          <t>superior</t>
-        </is>
-      </c>
-      <c r="MY1" s="1" t="inlineStr">
-        <is>
-          <t>symptom</t>
-        </is>
-      </c>
-      <c r="MZ1" s="1" t="inlineStr">
-        <is>
-          <t>typology</t>
-        </is>
-      </c>
-      <c r="NA1" s="1" t="inlineStr">
-        <is>
-          <t>however</t>
-        </is>
-      </c>
-      <c r="NB1" s="1" t="inlineStr">
-        <is>
-          <t>rated</t>
-        </is>
-      </c>
-      <c r="NC1" s="1" t="inlineStr">
-        <is>
-          <t>awaits</t>
-        </is>
-      </c>
-      <c r="ND1" s="1" t="inlineStr">
-        <is>
-          <t>as</t>
-        </is>
-      </c>
-      <c r="NE1" s="1" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="NF1" s="1" t="inlineStr">
-        <is>
-          <t>leaving</t>
-        </is>
-      </c>
-      <c r="NG1" s="1" t="inlineStr">
-        <is>
-          <t>limited</t>
-        </is>
-      </c>
       <c r="NH1" s="1" t="inlineStr">
         <is>
-          <t>additional</t>
+          <t>recruit</t>
         </is>
       </c>
       <c r="NI1" s="1" t="inlineStr">
         <is>
-          <t>brightest</t>
+          <t>question</t>
         </is>
       </c>
       <c r="NJ1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>little</t>
         </is>
       </c>
       <c r="NK1" s="1" t="inlineStr">
         <is>
-          <t>increase</t>
+          <t>low</t>
         </is>
       </c>
       <c r="NL1" s="1" t="inlineStr">
         <is>
-          <t>given</t>
+          <t>less</t>
         </is>
       </c>
       <c r="NM1" s="1" t="inlineStr">
         <is>
-          <t>actively</t>
+          <t>tests</t>
         </is>
       </c>
       <c r="NN1" s="1" t="inlineStr">
         <is>
-          <t>recruit</t>
+          <t>environment</t>
         </is>
       </c>
       <c r="NO1" s="1" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>training</t>
         </is>
       </c>
       <c r="NP1" s="1" t="inlineStr">
         <is>
-          <t>yet</t>
+          <t>focused</t>
         </is>
       </c>
       <c r="NQ1" s="1" t="inlineStr">
         <is>
-          <t>assessing</t>
+          <t>empirical</t>
         </is>
       </c>
       <c r="NR1" s="1" t="inlineStr">
         <is>
-          <t>measures</t>
+          <t>peers</t>
         </is>
       </c>
       <c r="NS1" s="1" t="inlineStr">
         <is>
-          <t>coefficients</t>
+          <t>five</t>
         </is>
       </c>
       <c r="NT1" s="1" t="inlineStr">
         <is>
-          <t>ratings</t>
+          <t>intellectually</t>
         </is>
       </c>
       <c r="NU1" s="1" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>made</t>
         </is>
       </c>
       <c r="NV1" s="1" t="inlineStr">
         <is>
-          <t>summer</t>
+          <t>comparative</t>
         </is>
       </c>
       <c r="NW1" s="1" t="inlineStr">
         <is>
-          <t>grades</t>
+          <t>checklist</t>
         </is>
       </c>
       <c r="NX1" s="1" t="inlineStr">
         <is>
-          <t>affect</t>
+          <t>greater</t>
         </is>
       </c>
       <c r="NY1" s="1" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>residential</t>
         </is>
       </c>
       <c r="NZ1" s="1" t="inlineStr">
         <is>
-          <t>overall</t>
+          <t>suggest</t>
         </is>
       </c>
       <c r="OA1" s="1" t="inlineStr">
         <is>
-          <t>attending</t>
+          <t>mixed</t>
         </is>
       </c>
       <c r="OB1" s="1" t="inlineStr">
         <is>
-          <t>evidence</t>
+          <t>poor</t>
         </is>
       </c>
       <c r="OC1" s="1" t="inlineStr">
         <is>
-          <t>chronological</t>
+          <t>might</t>
         </is>
       </c>
       <c r="OD1" s="1" t="inlineStr">
         <is>
-          <t>taught</t>
+          <t>led</t>
         </is>
       </c>
       <c r="OE1" s="1" t="inlineStr">
         <is>
-          <t>well-being</t>
+          <t>whereas</t>
         </is>
       </c>
       <c r="OF1" s="1" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>larger</t>
         </is>
       </c>
       <c r="OG1" s="1" t="inlineStr">
         <is>
-          <t>little</t>
+          <t>influencing</t>
         </is>
       </c>
       <c r="OH1" s="1" t="inlineStr">
         <is>
-          <t>empirical</t>
+          <t>disappointing</t>
         </is>
       </c>
       <c r="OI1" s="1" t="inlineStr">
         <is>
-          <t>less</t>
+          <t>tied</t>
         </is>
       </c>
       <c r="OJ1" s="1" t="inlineStr">
         <is>
-          <t>five</t>
+          <t>weaknesses</t>
         </is>
       </c>
       <c r="OK1" s="1" t="inlineStr">
         <is>
-          <t>checklist</t>
+          <t>strongly</t>
         </is>
       </c>
       <c r="OL1" s="1" t="inlineStr">
         <is>
-          <t>tests</t>
+          <t>fear</t>
         </is>
       </c>
       <c r="OM1" s="1" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>multidimensional</t>
         </is>
       </c>
       <c r="ON1" s="1" t="inlineStr">
         <is>
-          <t>made</t>
+          <t>strengths</t>
         </is>
       </c>
       <c r="OO1" s="1" t="inlineStr">
         <is>
-          <t>focused</t>
+          <t>self-worth</t>
         </is>
       </c>
       <c r="OP1" s="1" t="inlineStr">
         <is>
-          <t>intellectually</t>
+          <t>large</t>
         </is>
       </c>
       <c r="OQ1" s="1" t="inlineStr">
         <is>
-          <t>comparative</t>
+          <t>although</t>
         </is>
       </c>
       <c r="OR1" s="1" t="inlineStr">
         <is>
-          <t>mixed</t>
+          <t>storehouse</t>
         </is>
       </c>
       <c r="OS1" s="1" t="inlineStr">
         <is>
-          <t>peers</t>
+          <t>exposure</t>
         </is>
       </c>
       <c r="OT1" s="1" t="inlineStr">
         <is>
-          <t>environment</t>
+          <t>specialists</t>
         </is>
       </c>
       <c r="OU1" s="1" t="inlineStr">
         <is>
-          <t>greater</t>
+          <t>referring</t>
         </is>
       </c>
       <c r="OV1" s="1" t="inlineStr">
         <is>
-          <t>suggest</t>
+          <t>recommended</t>
         </is>
       </c>
       <c r="OW1" s="1" t="inlineStr">
         <is>
-          <t>residential</t>
+          <t>stringent</t>
         </is>
       </c>
       <c r="OX1" s="1" t="inlineStr">
         <is>
-          <t>poor</t>
+          <t>modeling</t>
         </is>
       </c>
       <c r="OY1" s="1" t="inlineStr">
         <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="OZ1" s="1" t="inlineStr">
+        <is>
+          <t>others</t>
+        </is>
+      </c>
+      <c r="PA1" s="1" t="inlineStr">
+        <is>
           <t>rather</t>
         </is>
       </c>
-      <c r="OZ1" s="1" t="inlineStr">
-        <is>
-          <t>recommended</t>
-        </is>
-      </c>
-      <c r="PA1" s="1" t="inlineStr">
-        <is>
-          <t>self-worth</t>
-        </is>
-      </c>
       <c r="PB1" s="1" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>self-orientated</t>
         </is>
       </c>
       <c r="PC1" s="1" t="inlineStr">
         <is>
-          <t>disappointing</t>
+          <t>brief</t>
         </is>
       </c>
       <c r="PD1" s="1" t="inlineStr">
         <is>
-          <t>stringent</t>
+          <t>chemistry</t>
         </is>
       </c>
       <c r="PE1" s="1" t="inlineStr">
         <is>
-          <t>self-orientated</t>
+          <t>computer</t>
         </is>
       </c>
       <c r="PF1" s="1" t="inlineStr">
         <is>
+          <t>fantasy-prone</t>
+        </is>
+      </c>
+      <c r="PG1" s="1" t="inlineStr">
+        <is>
+          <t>form</t>
+        </is>
+      </c>
+      <c r="PH1" s="1" t="inlineStr">
+        <is>
+          <t>generated</t>
+        </is>
+      </c>
+      <c r="PI1" s="1" t="inlineStr">
+        <is>
+          <t>collectively</t>
+        </is>
+      </c>
+      <c r="PJ1" s="1" t="inlineStr">
+        <is>
+          <t>imaginings</t>
+        </is>
+      </c>
+      <c r="PK1" s="1" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="PL1" s="1" t="inlineStr">
+        <is>
+          <t>contributing</t>
+        </is>
+      </c>
+      <c r="PM1" s="1" t="inlineStr">
+        <is>
+          <t>k-bit</t>
+        </is>
+      </c>
+      <c r="PN1" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="PO1" s="1" t="inlineStr">
+        <is>
+          <t>measured</t>
+        </is>
+      </c>
+      <c r="PP1" s="1" t="inlineStr">
+        <is>
+          <t>myers</t>
+        </is>
+      </c>
+      <c r="PQ1" s="1" t="inlineStr">
+        <is>
+          <t>primary</t>
+        </is>
+      </c>
+      <c r="PR1" s="1" t="inlineStr">
+        <is>
+          <t>comntributing</t>
+        </is>
+      </c>
+      <c r="PS1" s="1" t="inlineStr">
+        <is>
+          <t>science</t>
+        </is>
+      </c>
+      <c r="PT1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="PU1" s="1" t="inlineStr">
+        <is>
+          <t>selected</t>
+        </is>
+      </c>
+      <c r="PV1" s="1" t="inlineStr">
+        <is>
           <t>perfection</t>
         </is>
       </c>
-      <c r="PG1" s="1" t="inlineStr">
-        <is>
-          <t>part</t>
-        </is>
-      </c>
-      <c r="PH1" s="1" t="inlineStr">
+      <c r="PW1" s="1" t="inlineStr">
+        <is>
+          <t>needed</t>
+        </is>
+      </c>
+      <c r="PX1" s="1" t="inlineStr">
+        <is>
+          <t>memories</t>
+        </is>
+      </c>
+      <c r="PY1" s="1" t="inlineStr">
+        <is>
+          <t>biases</t>
+        </is>
+      </c>
+      <c r="PZ1" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="QA1" s="1" t="inlineStr">
+        <is>
+          <t>believed</t>
+        </is>
+      </c>
+      <c r="QB1" s="1" t="inlineStr">
+        <is>
+          <t>asked</t>
+        </is>
+      </c>
+      <c r="QC1" s="1" t="inlineStr">
         <is>
           <t>possessed</t>
         </is>
       </c>
-      <c r="PI1" s="1" t="inlineStr">
-        <is>
-          <t>referring</t>
-        </is>
-      </c>
-      <c r="PJ1" s="1" t="inlineStr">
-        <is>
-          <t>specialists</t>
-        </is>
-      </c>
-      <c r="PK1" s="1" t="inlineStr">
-        <is>
-          <t>strengths</t>
-        </is>
-      </c>
-      <c r="PL1" s="1" t="inlineStr">
-        <is>
-          <t>storehouse</t>
-        </is>
-      </c>
-      <c r="PM1" s="1" t="inlineStr">
+      <c r="QD1" s="1" t="inlineStr">
+        <is>
+          <t>nominating</t>
+        </is>
+      </c>
+      <c r="QE1" s="1" t="inlineStr">
+        <is>
+          <t>appeared</t>
+        </is>
+      </c>
+      <c r="QF1" s="1" t="inlineStr">
+        <is>
+          <t>information</t>
+        </is>
+      </c>
+      <c r="QG1" s="1" t="inlineStr">
+        <is>
+          <t>inclined</t>
+        </is>
+      </c>
+      <c r="QH1" s="1" t="inlineStr">
+        <is>
+          <t>expectations</t>
+        </is>
+      </c>
+      <c r="QI1" s="1" t="inlineStr">
+        <is>
+          <t>district</t>
+        </is>
+      </c>
+      <c r="QJ1" s="1" t="inlineStr">
+        <is>
+          <t>completing</t>
+        </is>
+      </c>
+      <c r="QK1" s="1" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="QL1" s="1" t="inlineStr">
+        <is>
+          <t>equivalent</t>
+        </is>
+      </c>
+      <c r="QM1" s="1" t="inlineStr">
+        <is>
+          <t>exploring</t>
+        </is>
+      </c>
+      <c r="QN1" s="1" t="inlineStr">
         <is>
           <t>over-shadowed</t>
         </is>
       </c>
-      <c r="PN1" s="1" t="inlineStr">
-        <is>
-          <t>strongly</t>
-        </is>
-      </c>
-      <c r="PO1" s="1" t="inlineStr">
-        <is>
-          <t>weaknesses</t>
-        </is>
-      </c>
-      <c r="PP1" s="1" t="inlineStr">
+      <c r="QO1" s="1" t="inlineStr">
+        <is>
+          <t>questionnaire</t>
+        </is>
+      </c>
+      <c r="QP1" s="1" t="inlineStr">
+        <is>
+          <t>esoteric</t>
+        </is>
+      </c>
+      <c r="QQ1" s="1" t="inlineStr">
+        <is>
+          <t>computations</t>
+        </is>
+      </c>
+      <c r="QR1" s="1" t="inlineStr">
+        <is>
+          <t>without</t>
+        </is>
+      </c>
+      <c r="QS1" s="1" t="inlineStr">
         <is>
           <t>employing</t>
         </is>
       </c>
-      <c r="PQ1" s="1" t="inlineStr">
-        <is>
-          <t>expectations</t>
-        </is>
-      </c>
-      <c r="PR1" s="1" t="inlineStr">
-        <is>
-          <t>modeling</t>
-        </is>
-      </c>
-      <c r="PS1" s="1" t="inlineStr">
-        <is>
-          <t>led</t>
-        </is>
-      </c>
-      <c r="PT1" s="1" t="inlineStr">
-        <is>
-          <t>exposure</t>
-        </is>
-      </c>
-      <c r="PU1" s="1" t="inlineStr">
-        <is>
-          <t>larger</t>
-        </is>
-      </c>
-      <c r="PV1" s="1" t="inlineStr">
-        <is>
-          <t>influencing</t>
-        </is>
-      </c>
-      <c r="PW1" s="1" t="inlineStr">
-        <is>
-          <t>fear</t>
-        </is>
-      </c>
-      <c r="PX1" s="1" t="inlineStr">
-        <is>
-          <t>contributing</t>
-        </is>
-      </c>
-      <c r="PY1" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="PZ1" s="1" t="inlineStr">
-        <is>
-          <t>nominating</t>
-        </is>
-      </c>
-      <c r="QA1" s="1" t="inlineStr">
-        <is>
-          <t>needed</t>
-        </is>
-      </c>
-      <c r="QB1" s="1" t="inlineStr">
-        <is>
-          <t>collectively</t>
-        </is>
-      </c>
-      <c r="QC1" s="1" t="inlineStr">
-        <is>
-          <t>multidimensional</t>
-        </is>
-      </c>
-      <c r="QD1" s="1" t="inlineStr">
-        <is>
-          <t>whereas</t>
-        </is>
-      </c>
-      <c r="QE1" s="1" t="inlineStr">
-        <is>
-          <t>appeared</t>
-        </is>
-      </c>
-      <c r="QF1" s="1" t="inlineStr">
-        <is>
-          <t>comntributing</t>
-        </is>
-      </c>
-      <c r="QG1" s="1" t="inlineStr">
-        <is>
-          <t>asked</t>
-        </is>
-      </c>
-      <c r="QH1" s="1" t="inlineStr">
-        <is>
-          <t>believed</t>
-        </is>
-      </c>
-      <c r="QI1" s="1" t="inlineStr">
-        <is>
-          <t>biases</t>
-        </is>
-      </c>
-      <c r="QJ1" s="1" t="inlineStr">
-        <is>
-          <t>completing</t>
-        </is>
-      </c>
-      <c r="QK1" s="1" t="inlineStr">
-        <is>
-          <t>computations</t>
-        </is>
-      </c>
-      <c r="QL1" s="1" t="inlineStr">
-        <is>
-          <t>district</t>
-        </is>
-      </c>
-      <c r="QM1" s="1" t="inlineStr">
-        <is>
-          <t>equivalent</t>
-        </is>
-      </c>
-      <c r="QN1" s="1" t="inlineStr">
-        <is>
-          <t>without</t>
-        </is>
-      </c>
-      <c r="QO1" s="1" t="inlineStr">
-        <is>
-          <t>esoteric</t>
-        </is>
-      </c>
-      <c r="QP1" s="1" t="inlineStr">
-        <is>
-          <t>exploring</t>
-        </is>
-      </c>
-      <c r="QQ1" s="1" t="inlineStr">
-        <is>
-          <t>focus</t>
-        </is>
-      </c>
-      <c r="QR1" s="1" t="inlineStr">
-        <is>
-          <t>inclined</t>
-        </is>
-      </c>
-      <c r="QS1" s="1" t="inlineStr">
-        <is>
-          <t>information</t>
-        </is>
-      </c>
       <c r="QT1" s="1" t="inlineStr">
         <is>
           <t>interest</t>
@@ -2742,2727 +2742,2557 @@
       </c>
       <c r="QU1" s="1" t="inlineStr">
         <is>
-          <t>tied</t>
+          <t>dual</t>
         </is>
       </c>
       <c r="QV1" s="1" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>assessment</t>
         </is>
       </c>
       <c r="QW1" s="1" t="inlineStr">
         <is>
-          <t>although</t>
+          <t>describes</t>
         </is>
       </c>
       <c r="QX1" s="1" t="inlineStr">
         <is>
-          <t>might</t>
+          <t>mathematical</t>
         </is>
       </c>
       <c r="QY1" s="1" t="inlineStr">
         <is>
-          <t>questionnaire</t>
+          <t>k-5</t>
         </is>
       </c>
       <c r="QZ1" s="1" t="inlineStr">
         <is>
-          <t>primary</t>
+          <t>services</t>
         </is>
       </c>
       <c r="RA1" s="1" t="inlineStr">
         <is>
-          <t>selected</t>
+          <t>space-time</t>
         </is>
       </c>
       <c r="RB1" s="1" t="inlineStr">
         <is>
-          <t>space-time</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="RC1" s="1" t="inlineStr">
         <is>
-          <t>k-5</t>
+          <t>boy</t>
         </is>
       </c>
       <c r="RD1" s="1" t="inlineStr">
         <is>
-          <t>mathematical</t>
+          <t>details</t>
         </is>
       </c>
       <c r="RE1" s="1" t="inlineStr">
         <is>
+          <t>specialist</t>
+        </is>
+      </c>
+      <c r="RF1" s="1" t="inlineStr">
+        <is>
           <t>parent</t>
         </is>
       </c>
-      <c r="RF1" s="1" t="inlineStr">
+      <c r="RG1" s="1" t="inlineStr">
+        <is>
+          <t>4-dimensional</t>
+        </is>
+      </c>
+      <c r="RH1" s="1" t="inlineStr">
+        <is>
+          <t>supporting</t>
+        </is>
+      </c>
+      <c r="RI1" s="1" t="inlineStr">
+        <is>
+          <t>difficulties</t>
+        </is>
+      </c>
+      <c r="RJ1" s="1" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="RK1" s="1" t="inlineStr">
         <is>
           <t>procedures</t>
         </is>
       </c>
-      <c r="RG1" s="1" t="inlineStr">
+      <c r="RL1" s="1" t="inlineStr">
+        <is>
+          <t>gift</t>
+        </is>
+      </c>
+      <c r="RM1" s="1" t="inlineStr">
+        <is>
+          <t>evaluation</t>
+        </is>
+      </c>
+      <c r="RN1" s="1" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="RO1" s="1" t="inlineStr">
         <is>
           <t>remediating</t>
         </is>
       </c>
-      <c r="RH1" s="1" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="RI1" s="1" t="inlineStr">
-        <is>
-          <t>services</t>
-        </is>
-      </c>
-      <c r="RJ1" s="1" t="inlineStr">
-        <is>
-          <t>specialist</t>
-        </is>
-      </c>
-      <c r="RK1" s="1" t="inlineStr">
-        <is>
-          <t>score</t>
-        </is>
-      </c>
-      <c r="RL1" s="1" t="inlineStr">
-        <is>
-          <t>supporting</t>
-        </is>
-      </c>
-      <c r="RM1" s="1" t="inlineStr">
-        <is>
-          <t>generated</t>
-        </is>
-      </c>
-      <c r="RN1" s="1" t="inlineStr">
-        <is>
-          <t>form</t>
-        </is>
-      </c>
-      <c r="RO1" s="1" t="inlineStr">
-        <is>
-          <t>fantasy-prone</t>
-        </is>
-      </c>
       <c r="RP1" s="1" t="inlineStr">
         <is>
-          <t>computer</t>
+          <t>exceptionalities</t>
         </is>
       </c>
       <c r="RQ1" s="1" t="inlineStr">
         <is>
-          <t>chemistry</t>
+          <t>decisions</t>
         </is>
       </c>
       <c r="RR1" s="1" t="inlineStr">
         <is>
-          <t>brief</t>
+          <t>contributes</t>
         </is>
       </c>
       <c r="RS1" s="1" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>decision</t>
         </is>
       </c>
       <c r="RT1" s="1" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>constructive</t>
         </is>
       </c>
       <c r="RU1" s="1" t="inlineStr">
         <is>
-          <t>gift</t>
+          <t>discussion</t>
         </is>
       </c>
       <c r="RV1" s="1" t="inlineStr">
         <is>
-          <t>exceptionalities</t>
+          <t>fill</t>
         </is>
       </c>
       <c r="RW1" s="1" t="inlineStr">
         <is>
-          <t>science</t>
+          <t>concentrates</t>
         </is>
       </c>
       <c r="RX1" s="1" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>judicial</t>
         </is>
       </c>
       <c r="RY1" s="1" t="inlineStr">
         <is>
-          <t>myers</t>
+          <t>performance-approach</t>
         </is>
       </c>
       <c r="RZ1" s="1" t="inlineStr">
         <is>
-          <t>memories</t>
+          <t>procrastination</t>
         </is>
       </c>
       <c r="SA1" s="1" t="inlineStr">
         <is>
-          <t>measured</t>
+          <t>contribute</t>
         </is>
       </c>
       <c r="SB1" s="1" t="inlineStr">
         <is>
-          <t>k-bit</t>
+          <t>seek</t>
         </is>
       </c>
       <c r="SC1" s="1" t="inlineStr">
         <is>
-          <t>imaginings</t>
+          <t>lack</t>
         </is>
       </c>
       <c r="SD1" s="1" t="inlineStr">
         <is>
-          <t>4-dimensional</t>
+          <t>slice</t>
         </is>
       </c>
       <c r="SE1" s="1" t="inlineStr">
         <is>
-          <t>assessment</t>
+          <t>tended</t>
         </is>
       </c>
       <c r="SF1" s="1" t="inlineStr">
         <is>
-          <t>boy</t>
+          <t>k-12</t>
         </is>
       </c>
       <c r="SG1" s="1" t="inlineStr">
         <is>
-          <t>describes</t>
+          <t>court</t>
         </is>
       </c>
       <c r="SH1" s="1" t="inlineStr">
         <is>
-          <t>details</t>
+          <t>choose</t>
         </is>
       </c>
       <c r="SI1" s="1" t="inlineStr">
         <is>
-          <t>difficulties</t>
+          <t>utilizing</t>
         </is>
       </c>
       <c r="SJ1" s="1" t="inlineStr">
         <is>
-          <t>dual</t>
+          <t>working</t>
         </is>
       </c>
       <c r="SK1" s="1" t="inlineStr">
         <is>
-          <t>evaluation</t>
+          <t>date</t>
         </is>
       </c>
       <c r="SL1" s="1" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="SM1" s="1" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>decisions-concerning</t>
         </is>
       </c>
       <c r="SN1" s="1" t="inlineStr">
         <is>
+          <t>author</t>
+        </is>
+      </c>
+      <c r="SO1" s="1" t="inlineStr">
+        <is>
+          <t>defendant</t>
+        </is>
+      </c>
+      <c r="SP1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
+        </is>
+      </c>
+      <c r="SQ1" s="1" t="inlineStr">
+        <is>
+          <t>along</t>
+        </is>
+      </c>
+      <c r="SR1" s="1" t="inlineStr">
+        <is>
+          <t>''</t>
+        </is>
+      </c>
+      <c r="SS1" s="1" t="inlineStr">
+        <is>
+          <t>exist</t>
+        </is>
+      </c>
+      <c r="ST1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="SU1" s="1" t="inlineStr">
+        <is>
+          <t>options</t>
+        </is>
+      </c>
+      <c r="SV1" s="1" t="inlineStr">
+        <is>
+          <t>comprehensive</t>
+        </is>
+      </c>
+      <c r="SW1" s="1" t="inlineStr">
+        <is>
+          <t>participation</t>
+        </is>
+      </c>
+      <c r="SX1" s="1" t="inlineStr">
+        <is>
+          <t>particularly</t>
+        </is>
+      </c>
+      <c r="SY1" s="1" t="inlineStr">
+        <is>
+          <t>potentially</t>
+        </is>
+      </c>
+      <c r="SZ1" s="1" t="inlineStr">
+        <is>
+          <t>powerful</t>
+        </is>
+      </c>
+      <c r="TA1" s="1" t="inlineStr">
+        <is>
+          <t>pressures</t>
+        </is>
+      </c>
+      <c r="TB1" s="1" t="inlineStr">
+        <is>
+          <t>categories</t>
+        </is>
+      </c>
+      <c r="TC1" s="1" t="inlineStr">
+        <is>
+          <t>exceptional</t>
+        </is>
+      </c>
+      <c r="TD1" s="1" t="inlineStr">
+        <is>
+          <t>explores</t>
+        </is>
+      </c>
+      <c r="TE1" s="1" t="inlineStr">
+        <is>
+          <t>gap</t>
+        </is>
+      </c>
+      <c r="TF1" s="1" t="inlineStr">
+        <is>
+          <t>representation</t>
+        </is>
+      </c>
+      <c r="TG1" s="1" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="TH1" s="1" t="inlineStr">
+        <is>
+          <t>strategy</t>
+        </is>
+      </c>
+      <c r="TI1" s="1" t="inlineStr">
+        <is>
+          <t>underrepresentation</t>
+        </is>
+      </c>
+      <c r="TJ1" s="1" t="inlineStr">
+        <is>
+          <t>viable</t>
+        </is>
+      </c>
+      <c r="TK1" s="1" t="inlineStr">
+        <is>
+          <t>perfectionist</t>
+        </is>
+      </c>
+      <c r="TL1" s="1" t="inlineStr">
+        <is>
+          <t>well</t>
+        </is>
+      </c>
+      <c r="TM1" s="1" t="inlineStr">
+        <is>
+          <t>generally</t>
+        </is>
+      </c>
+      <c r="TN1" s="1" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="TO1" s="1" t="inlineStr">
+        <is>
+          <t>namely</t>
+        </is>
+      </c>
+      <c r="TP1" s="1" t="inlineStr">
+        <is>
+          <t>multicultural</t>
+        </is>
+      </c>
+      <c r="TQ1" s="1" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="TR1" s="1" t="inlineStr">
+        <is>
+          <t>disability</t>
+        </is>
+      </c>
+      <c r="TS1" s="1" t="inlineStr">
+        <is>
+          <t>complexity</t>
+        </is>
+      </c>
+      <c r="TT1" s="1" t="inlineStr">
+        <is>
+          <t>abscence</t>
+        </is>
+      </c>
+      <c r="TU1" s="1" t="inlineStr">
+        <is>
+          <t>ford</t>
+        </is>
+      </c>
+      <c r="TV1" s="1" t="inlineStr">
+        <is>
+          <t>helping</t>
+        </is>
+      </c>
+      <c r="TW1" s="1" t="inlineStr">
+        <is>
+          <t>concise</t>
+        </is>
+      </c>
+      <c r="TX1" s="1" t="inlineStr">
+        <is>
+          <t>hearing/review</t>
+        </is>
+      </c>
+      <c r="TY1" s="1" t="inlineStr">
+        <is>
+          <t>issues</t>
+        </is>
+      </c>
+      <c r="TZ1" s="1" t="inlineStr">
+        <is>
+          <t>distinct</t>
+        </is>
+      </c>
+      <c r="UA1" s="1" t="inlineStr">
+        <is>
+          <t>district-friendly</t>
+        </is>
+      </c>
+      <c r="UB1" s="1" t="inlineStr">
+        <is>
+          <t>long-term</t>
+        </is>
+      </c>
+      <c r="UC1" s="1" t="inlineStr">
+        <is>
+          <t>maintains</t>
+        </is>
+      </c>
+      <c r="UD1" s="1" t="inlineStr">
+        <is>
+          <t>gifted-plus</t>
+        </is>
+      </c>
+      <c r="UE1" s="1" t="inlineStr">
+        <is>
+          <t>mentoring</t>
+        </is>
+      </c>
+      <c r="UF1" s="1" t="inlineStr">
+        <is>
+          <t>mentorships</t>
+        </is>
+      </c>
+      <c r="UG1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="UH1" s="1" t="inlineStr">
+        <is>
           <t>participating</t>
         </is>
       </c>
-      <c r="SO1" s="1" t="inlineStr">
-        <is>
-          <t>exist</t>
-        </is>
-      </c>
-      <c r="SP1" s="1" t="inlineStr">
-        <is>
-          <t>concentrates</t>
-        </is>
-      </c>
-      <c r="SQ1" s="1" t="inlineStr">
-        <is>
-          <t>constructive</t>
-        </is>
-      </c>
-      <c r="SR1" s="1" t="inlineStr">
-        <is>
-          <t>contributes</t>
-        </is>
-      </c>
-      <c r="SS1" s="1" t="inlineStr">
-        <is>
-          <t>decision</t>
-        </is>
-      </c>
-      <c r="ST1" s="1" t="inlineStr">
-        <is>
-          <t>decisions</t>
-        </is>
-      </c>
-      <c r="SU1" s="1" t="inlineStr">
-        <is>
-          <t>discussion</t>
-        </is>
-      </c>
-      <c r="SV1" s="1" t="inlineStr">
-        <is>
-          <t>explores</t>
-        </is>
-      </c>
-      <c r="SW1" s="1" t="inlineStr">
+      <c r="UI1" s="1" t="inlineStr">
+        <is>
+          <t>symptoms</t>
+        </is>
+      </c>
+      <c r="UJ1" s="1" t="inlineStr">
+        <is>
+          <t>overarching</t>
+        </is>
+      </c>
+      <c r="UK1" s="1" t="inlineStr">
+        <is>
+          <t>preventive</t>
+        </is>
+      </c>
+      <c r="UL1" s="1" t="inlineStr">
+        <is>
+          <t>terms</t>
+        </is>
+      </c>
+      <c r="UM1" s="1" t="inlineStr">
+        <is>
+          <t>trend</t>
+        </is>
+      </c>
+      <c r="UN1" s="1" t="inlineStr">
+        <is>
+          <t>twice</t>
+        </is>
+      </c>
+      <c r="UO1" s="1" t="inlineStr">
+        <is>
+          <t>typically</t>
+        </is>
+      </c>
+      <c r="UP1" s="1" t="inlineStr">
+        <is>
+          <t>whose</t>
+        </is>
+      </c>
+      <c r="UQ1" s="1" t="inlineStr">
+        <is>
+          <t>valuing</t>
+        </is>
+      </c>
+      <c r="UR1" s="1" t="inlineStr">
+        <is>
+          <t>resoning</t>
+        </is>
+      </c>
+      <c r="US1" s="1" t="inlineStr">
+        <is>
+          <t>promotion</t>
+        </is>
+      </c>
+      <c r="UT1" s="1" t="inlineStr">
+        <is>
+          <t>predicting</t>
+        </is>
+      </c>
+      <c r="UU1" s="1" t="inlineStr">
+        <is>
+          <t>solely</t>
+        </is>
+      </c>
+      <c r="UV1" s="1" t="inlineStr">
+        <is>
+          <t>notable</t>
+        </is>
+      </c>
+      <c r="UW1" s="1" t="inlineStr">
+        <is>
+          <t>nominated</t>
+        </is>
+      </c>
+      <c r="UX1" s="1" t="inlineStr">
+        <is>
+          <t>maintenance</t>
+        </is>
+      </c>
+      <c r="UY1" s="1" t="inlineStr">
+        <is>
+          <t>join</t>
+        </is>
+      </c>
+      <c r="UZ1" s="1" t="inlineStr">
+        <is>
+          <t>law-specifically</t>
+        </is>
+      </c>
+      <c r="VA1" s="1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="VB1" s="1" t="inlineStr">
+        <is>
+          <t>attempting</t>
+        </is>
+      </c>
+      <c r="VC1" s="1" t="inlineStr">
+        <is>
+          <t>acceptance</t>
+        </is>
+      </c>
+      <c r="VD1" s="1" t="inlineStr">
+        <is>
+          <t>states</t>
+        </is>
+      </c>
+      <c r="VE1" s="1" t="inlineStr">
+        <is>
+          <t>university</t>
+        </is>
+      </c>
+      <c r="VF1" s="1" t="inlineStr">
+        <is>
+          <t>sensitivity</t>
+        </is>
+      </c>
+      <c r="VG1" s="1" t="inlineStr">
+        <is>
+          <t>officer</t>
+        </is>
+      </c>
+      <c r="VH1" s="1" t="inlineStr">
+        <is>
+          <t>avoid</t>
+        </is>
+      </c>
+      <c r="VI1" s="1" t="inlineStr">
+        <is>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="VJ1" s="1" t="inlineStr">
+        <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="VK1" s="1" t="inlineStr">
+        <is>
+          <t>response</t>
+        </is>
+      </c>
+      <c r="VL1" s="1" t="inlineStr">
+        <is>
+          <t>ethic</t>
+        </is>
+      </c>
+      <c r="VM1" s="1" t="inlineStr">
+        <is>
+          <t>achieve</t>
+        </is>
+      </c>
+      <c r="VN1" s="1" t="inlineStr">
+        <is>
+          <t>motivated</t>
+        </is>
+      </c>
+      <c r="VO1" s="1" t="inlineStr">
+        <is>
+          <t>likely</t>
+        </is>
+      </c>
+      <c r="VP1" s="1" t="inlineStr">
+        <is>
+          <t>challenges</t>
+        </is>
+      </c>
+      <c r="VQ1" s="1" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="VR1" s="1" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="VS1" s="1" t="inlineStr">
         <is>
           <t>plus</t>
         </is>
       </c>
-      <c r="SX1" s="1" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="SY1" s="1" t="inlineStr">
-        <is>
-          <t>ford</t>
-        </is>
-      </c>
-      <c r="SZ1" s="1" t="inlineStr">
-        <is>
-          <t>helping</t>
-        </is>
-      </c>
-      <c r="TA1" s="1" t="inlineStr">
+      <c r="VT1" s="1" t="inlineStr">
         <is>
           <t>published</t>
         </is>
       </c>
-      <c r="TB1" s="1" t="inlineStr">
-        <is>
-          <t>issues</t>
-        </is>
-      </c>
-      <c r="TC1" s="1" t="inlineStr">
-        <is>
-          <t>long-term</t>
-        </is>
-      </c>
-      <c r="TD1" s="1" t="inlineStr">
-        <is>
-          <t>choose</t>
-        </is>
-      </c>
-      <c r="TE1" s="1" t="inlineStr">
-        <is>
-          <t>choices</t>
-        </is>
-      </c>
-      <c r="TF1" s="1" t="inlineStr">
+      <c r="VU1" s="1" t="inlineStr">
         <is>
           <t>race</t>
         </is>
       </c>
-      <c r="TG1" s="1" t="inlineStr">
+      <c r="VV1" s="1" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="TH1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
-      <c r="TI1" s="1" t="inlineStr">
-        <is>
-          <t>along</t>
-        </is>
-      </c>
-      <c r="TJ1" s="1" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
-      </c>
-      <c r="TK1" s="1" t="inlineStr">
-        <is>
-          <t>working</t>
-        </is>
-      </c>
-      <c r="TL1" s="1" t="inlineStr">
-        <is>
-          <t>utilizing</t>
-        </is>
-      </c>
-      <c r="TM1" s="1" t="inlineStr">
+      <c r="VW1" s="1" t="inlineStr">
         <is>
           <t>represents</t>
         </is>
       </c>
-      <c r="TN1" s="1" t="inlineStr">
-        <is>
-          <t>sensitivity</t>
-        </is>
-      </c>
-      <c r="TO1" s="1" t="inlineStr">
-        <is>
-          <t>solely</t>
-        </is>
-      </c>
-      <c r="TP1" s="1" t="inlineStr">
-        <is>
-          <t>judicial</t>
-        </is>
-      </c>
-      <c r="TQ1" s="1" t="inlineStr">
-        <is>
-          <t>slice</t>
-        </is>
-      </c>
-      <c r="TR1" s="1" t="inlineStr">
-        <is>
-          <t>states</t>
-        </is>
-      </c>
-      <c r="TS1" s="1" t="inlineStr">
-        <is>
-          <t>seek</t>
-        </is>
-      </c>
-      <c r="TT1" s="1" t="inlineStr">
-        <is>
-          <t>procrastination</t>
-        </is>
-      </c>
-      <c r="TU1" s="1" t="inlineStr">
-        <is>
-          <t>maintains</t>
-        </is>
-      </c>
-      <c r="TV1" s="1" t="inlineStr">
-        <is>
-          <t>mentoring</t>
-        </is>
-      </c>
-      <c r="TW1" s="1" t="inlineStr">
-        <is>
-          <t>terms</t>
-        </is>
-      </c>
-      <c r="TX1" s="1" t="inlineStr">
-        <is>
-          <t>generally</t>
-        </is>
-      </c>
-      <c r="TY1" s="1" t="inlineStr">
-        <is>
-          <t>viable</t>
-        </is>
-      </c>
-      <c r="TZ1" s="1" t="inlineStr">
-        <is>
-          <t>well</t>
-        </is>
-      </c>
-      <c r="UA1" s="1" t="inlineStr">
-        <is>
-          <t>while</t>
-        </is>
-      </c>
-      <c r="UB1" s="1" t="inlineStr">
-        <is>
-          <t>look</t>
-        </is>
-      </c>
-      <c r="UC1" s="1" t="inlineStr">
-        <is>
-          <t>fill</t>
-        </is>
-      </c>
-      <c r="UD1" s="1" t="inlineStr">
-        <is>
-          <t>gap</t>
-        </is>
-      </c>
-      <c r="UE1" s="1" t="inlineStr">
-        <is>
-          <t>likely</t>
-        </is>
-      </c>
-      <c r="UF1" s="1" t="inlineStr">
-        <is>
-          <t>mentorships</t>
-        </is>
-      </c>
-      <c r="UG1" s="1" t="inlineStr">
+      <c r="VX1" s="1" t="inlineStr">
         <is>
           <t>legislation</t>
         </is>
       </c>
-      <c r="UH1" s="1" t="inlineStr">
-        <is>
-          <t>gifted-plus</t>
-        </is>
-      </c>
-      <c r="UI1" s="1" t="inlineStr">
-        <is>
-          <t>law-specifically</t>
-        </is>
-      </c>
-      <c r="UJ1" s="1" t="inlineStr">
-        <is>
-          <t>lack</t>
-        </is>
-      </c>
-      <c r="UK1" s="1" t="inlineStr">
-        <is>
-          <t>k-12</t>
-        </is>
-      </c>
-      <c r="UL1" s="1" t="inlineStr">
-        <is>
-          <t>hearing/review</t>
-        </is>
-      </c>
-      <c r="UM1" s="1" t="inlineStr">
-        <is>
-          <t>underrepresentation</t>
-        </is>
-      </c>
-      <c r="UN1" s="1" t="inlineStr">
-        <is>
-          <t>strategy</t>
-        </is>
-      </c>
-      <c r="UO1" s="1" t="inlineStr">
-        <is>
-          <t>retention</t>
-        </is>
-      </c>
-      <c r="UP1" s="1" t="inlineStr">
-        <is>
-          <t>representation</t>
-        </is>
-      </c>
-      <c r="UQ1" s="1" t="inlineStr">
-        <is>
-          <t>exceptional</t>
-        </is>
-      </c>
-      <c r="UR1" s="1" t="inlineStr">
-        <is>
-          <t>officer</t>
-        </is>
-      </c>
-      <c r="US1" s="1" t="inlineStr">
-        <is>
-          <t>pressures</t>
-        </is>
-      </c>
-      <c r="UT1" s="1" t="inlineStr">
-        <is>
-          <t>powerful</t>
-        </is>
-      </c>
-      <c r="UU1" s="1" t="inlineStr">
-        <is>
-          <t>potentially</t>
-        </is>
-      </c>
-      <c r="UV1" s="1" t="inlineStr">
-        <is>
-          <t>particularly</t>
-        </is>
-      </c>
-      <c r="UW1" s="1" t="inlineStr">
-        <is>
-          <t>participation</t>
-        </is>
-      </c>
-      <c r="UX1" s="1" t="inlineStr">
-        <is>
-          <t>options</t>
-        </is>
-      </c>
-      <c r="UY1" s="1" t="inlineStr">
-        <is>
-          <t>overview</t>
-        </is>
-      </c>
-      <c r="UZ1" s="1" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="VA1" s="1" t="inlineStr">
-        <is>
-          <t>namely</t>
-        </is>
-      </c>
-      <c r="VB1" s="1" t="inlineStr">
-        <is>
-          <t>multicultural</t>
-        </is>
-      </c>
-      <c r="VC1" s="1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
-      </c>
-      <c r="VD1" s="1" t="inlineStr">
-        <is>
-          <t>performance-approach</t>
-        </is>
-      </c>
-      <c r="VE1" s="1" t="inlineStr">
-        <is>
-          <t>tended</t>
-        </is>
-      </c>
-      <c r="VF1" s="1" t="inlineStr">
-        <is>
-          <t>perfectionist</t>
-        </is>
-      </c>
-      <c r="VG1" s="1" t="inlineStr">
-        <is>
-          <t>abscence</t>
-        </is>
-      </c>
-      <c r="VH1" s="1" t="inlineStr">
-        <is>
-          <t>concise</t>
-        </is>
-      </c>
-      <c r="VI1" s="1" t="inlineStr">
-        <is>
-          <t>court</t>
-        </is>
-      </c>
-      <c r="VJ1" s="1" t="inlineStr">
-        <is>
-          <t>comprehensive</t>
-        </is>
-      </c>
-      <c r="VK1" s="1" t="inlineStr">
-        <is>
-          <t>complexity</t>
-        </is>
-      </c>
-      <c r="VL1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="VM1" s="1" t="inlineStr">
-        <is>
-          <t>overarching</t>
-        </is>
-      </c>
-      <c r="VN1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="VO1" s="1" t="inlineStr">
-        <is>
-          <t>decisions-concerning</t>
-        </is>
-      </c>
-      <c r="VP1" s="1" t="inlineStr">
-        <is>
-          <t>defendant</t>
-        </is>
-      </c>
-      <c r="VQ1" s="1" t="inlineStr">
-        <is>
-          <t>disability</t>
-        </is>
-      </c>
-      <c r="VR1" s="1" t="inlineStr">
-        <is>
-          <t>distinct</t>
-        </is>
-      </c>
-      <c r="VS1" s="1" t="inlineStr">
-        <is>
-          <t>district-friendly</t>
-        </is>
-      </c>
-      <c r="VT1" s="1" t="inlineStr">
-        <is>
-          <t>''</t>
-        </is>
-      </c>
-      <c r="VU1" s="1" t="inlineStr">
-        <is>
-          <t>categories</t>
-        </is>
-      </c>
-      <c r="VV1" s="1" t="inlineStr">
-        <is>
-          <t>contribute</t>
-        </is>
-      </c>
-      <c r="VW1" s="1" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="VX1" s="1" t="inlineStr">
-        <is>
-          <t>challenges</t>
-        </is>
-      </c>
       <c r="VY1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>country</t>
         </is>
       </c>
       <c r="VZ1" s="1" t="inlineStr">
         <is>
-          <t>trend</t>
+          <t>combinations</t>
         </is>
       </c>
       <c r="WA1" s="1" t="inlineStr">
         <is>
-          <t>motivated</t>
+          <t>characters</t>
         </is>
       </c>
       <c r="WB1" s="1" t="inlineStr">
         <is>
-          <t>achieve</t>
+          <t>show</t>
         </is>
       </c>
       <c r="WC1" s="1" t="inlineStr">
         <is>
-          <t>typically</t>
+          <t>pseudoword</t>
         </is>
       </c>
       <c r="WD1" s="1" t="inlineStr">
         <is>
-          <t>twice</t>
+          <t>cramond</t>
         </is>
       </c>
       <c r="WE1" s="1" t="inlineStr">
         <is>
-          <t>ethic</t>
+          <t>speed</t>
         </is>
       </c>
       <c r="WF1" s="1" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>subject</t>
         </is>
       </c>
       <c r="WG1" s="1" t="inlineStr">
         <is>
-          <t>avoid</t>
+          <t>demonstrates</t>
         </is>
       </c>
       <c r="WH1" s="1" t="inlineStr">
         <is>
-          <t>whose</t>
+          <t>designated</t>
         </is>
       </c>
       <c r="WI1" s="1" t="inlineStr">
         <is>
+          <t>spell</t>
+        </is>
+      </c>
+      <c r="WJ1" s="1" t="inlineStr">
+        <is>
+          <t>spelling</t>
+        </is>
+      </c>
+      <c r="WK1" s="1" t="inlineStr">
+        <is>
+          <t>unable</t>
+        </is>
+      </c>
+      <c r="WL1" s="1" t="inlineStr">
+        <is>
+          <t>went</t>
+        </is>
+      </c>
+      <c r="WM1" s="1" t="inlineStr">
+        <is>
+          <t>wider</t>
+        </is>
+      </c>
+      <c r="WN1" s="1" t="inlineStr">
+        <is>
+          <t>especially</t>
+        </is>
+      </c>
+      <c r="WO1" s="1" t="inlineStr">
+        <is>
+          <t>brilliant</t>
+        </is>
+      </c>
+      <c r="WP1" s="1" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="WQ1" s="1" t="inlineStr">
+        <is>
+          <t>girl</t>
+        </is>
+      </c>
+      <c r="WR1" s="1" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="WS1" s="1" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="WT1" s="1" t="inlineStr">
+        <is>
+          <t>phonological</t>
+        </is>
+      </c>
+      <c r="WU1" s="1" t="inlineStr">
+        <is>
+          <t>phonemic</t>
+        </is>
+      </c>
+      <c r="WV1" s="1" t="inlineStr">
+        <is>
+          <t>able</t>
+        </is>
+      </c>
+      <c r="WW1" s="1" t="inlineStr">
+        <is>
+          <t>accurate</t>
+        </is>
+      </c>
+      <c r="WX1" s="1" t="inlineStr">
+        <is>
+          <t>ages</t>
+        </is>
+      </c>
+      <c r="WY1" s="1" t="inlineStr">
+        <is>
+          <t>aspects</t>
+        </is>
+      </c>
+      <c r="WZ1" s="1" t="inlineStr">
+        <is>
+          <t>continued</t>
+        </is>
+      </c>
+      <c r="XA1" s="1" t="inlineStr">
+        <is>
+          <t>contrasts</t>
+        </is>
+      </c>
+      <c r="XB1" s="1" t="inlineStr">
+        <is>
+          <t>drawn</t>
+        </is>
+      </c>
+      <c r="XC1" s="1" t="inlineStr">
+        <is>
+          <t>in-service</t>
+        </is>
+      </c>
+      <c r="XD1" s="1" t="inlineStr">
+        <is>
+          <t>explicit</t>
+        </is>
+      </c>
+      <c r="XE1" s="1" t="inlineStr">
+        <is>
+          <t>fluently</t>
+        </is>
+      </c>
+      <c r="XF1" s="1" t="inlineStr">
+        <is>
+          <t>homes</t>
+        </is>
+      </c>
+      <c r="XG1" s="1" t="inlineStr">
+        <is>
+          <t>illustrative</t>
+        </is>
+      </c>
+      <c r="XH1" s="1" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="XI1" s="1" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="XJ1" s="1" t="inlineStr">
+        <is>
+          <t>academics</t>
+        </is>
+      </c>
+      <c r="XK1" s="1" t="inlineStr">
+        <is>
           <t>longitudinal</t>
         </is>
       </c>
-      <c r="WJ1" s="1" t="inlineStr">
+      <c r="XL1" s="1" t="inlineStr">
+        <is>
+          <t>american</t>
+        </is>
+      </c>
+      <c r="XM1" s="1" t="inlineStr">
+        <is>
+          <t>months</t>
+        </is>
+      </c>
+      <c r="XN1" s="1" t="inlineStr">
+        <is>
+          <t>moreover</t>
+        </is>
+      </c>
+      <c r="XO1" s="1" t="inlineStr">
+        <is>
+          <t>hypothetical</t>
+        </is>
+      </c>
+      <c r="XP1" s="1" t="inlineStr">
+        <is>
+          <t>represented</t>
+        </is>
+      </c>
+      <c r="XQ1" s="1" t="inlineStr">
+        <is>
+          <t>initiated</t>
+        </is>
+      </c>
+      <c r="XR1" s="1" t="inlineStr">
+        <is>
+          <t>studious</t>
+        </is>
+      </c>
+      <c r="XS1" s="1" t="inlineStr">
+        <is>
+          <t>tannenbaum</t>
+        </is>
+      </c>
+      <c r="XT1" s="1" t="inlineStr">
+        <is>
+          <t>heterogenous</t>
+        </is>
+      </c>
+      <c r="XU1" s="1" t="inlineStr">
+        <is>
+          <t>heterogeneously</t>
+        </is>
+      </c>
+      <c r="XV1" s="1" t="inlineStr">
+        <is>
+          <t>heterogeneous</t>
+        </is>
+      </c>
+      <c r="XW1" s="1" t="inlineStr">
+        <is>
+          <t>grouped</t>
+        </is>
+      </c>
+      <c r="XX1" s="1" t="inlineStr">
+        <is>
+          <t>forty-four</t>
+        </is>
+      </c>
+      <c r="XY1" s="1" t="inlineStr">
+        <is>
+          <t>finding</t>
+        </is>
+      </c>
+      <c r="XZ1" s="1" t="inlineStr">
+        <is>
+          <t>feelings</t>
+        </is>
+      </c>
+      <c r="YA1" s="1" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="YB1" s="1" t="inlineStr">
+        <is>
+          <t>traditionally</t>
+        </is>
+      </c>
+      <c r="YC1" s="1" t="inlineStr">
+        <is>
+          <t>u.s.</t>
+        </is>
+      </c>
+      <c r="YD1" s="1" t="inlineStr">
+        <is>
+          <t>ubiquitous</t>
+        </is>
+      </c>
+      <c r="YE1" s="1" t="inlineStr">
+        <is>
+          <t>easier</t>
+        </is>
+      </c>
+      <c r="YF1" s="1" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="YG1" s="1" t="inlineStr">
+        <is>
+          <t>counselors</t>
+        </is>
+      </c>
+      <c r="YH1" s="1" t="inlineStr">
+        <is>
+          <t>contrasted</t>
+        </is>
+      </c>
+      <c r="YI1" s="1" t="inlineStr">
+        <is>
+          <t>conditions</t>
+        </is>
+      </c>
+      <c r="YJ1" s="1" t="inlineStr">
+        <is>
+          <t>usually</t>
+        </is>
+      </c>
+      <c r="YK1" s="1" t="inlineStr">
+        <is>
+          <t>varied</t>
+        </is>
+      </c>
+      <c r="YL1" s="1" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="YM1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="YN1" s="1" t="inlineStr">
+        <is>
+          <t>class</t>
+        </is>
+      </c>
+      <c r="YO1" s="1" t="inlineStr">
+        <is>
+          <t>clarify</t>
+        </is>
+      </c>
+      <c r="YP1" s="1" t="inlineStr">
+        <is>
+          <t>attain</t>
+        </is>
+      </c>
+      <c r="YQ1" s="1" t="inlineStr">
+        <is>
+          <t>5-11</t>
+        </is>
+      </c>
+      <c r="YR1" s="1" t="inlineStr">
+        <is>
+          <t>homogeneously</t>
+        </is>
+      </c>
+      <c r="YS1" s="1" t="inlineStr">
+        <is>
+          <t>sport</t>
+        </is>
+      </c>
+      <c r="YT1" s="1" t="inlineStr">
+        <is>
+          <t>korea</t>
+        </is>
+      </c>
+      <c r="YU1" s="1" t="inlineStr">
+        <is>
+          <t>interviews</t>
+        </is>
+      </c>
+      <c r="YV1" s="1" t="inlineStr">
+        <is>
+          <t>martin</t>
+        </is>
+      </c>
+      <c r="YW1" s="1" t="inlineStr">
+        <is>
+          <t>measuring</t>
+        </is>
+      </c>
+      <c r="YX1" s="1" t="inlineStr">
+        <is>
+          <t>mindedness</t>
+        </is>
+      </c>
+      <c r="YY1" s="1" t="inlineStr">
+        <is>
+          <t>youth</t>
+        </is>
+      </c>
+      <c r="YZ1" s="1" t="inlineStr">
+        <is>
+          <t>whole</t>
+        </is>
+      </c>
+      <c r="ZA1" s="1" t="inlineStr">
+        <is>
+          <t>nonathletic</t>
+        </is>
+      </c>
+      <c r="ZB1" s="1" t="inlineStr">
+        <is>
+          <t>troubling</t>
+        </is>
+      </c>
+      <c r="ZC1" s="1" t="inlineStr">
+        <is>
+          <t>social/emotional</t>
+        </is>
+      </c>
+      <c r="ZD1" s="1" t="inlineStr">
+        <is>
+          <t>setting</t>
+        </is>
+      </c>
+      <c r="ZE1" s="1" t="inlineStr">
+        <is>
+          <t>seemed</t>
+        </is>
+      </c>
+      <c r="ZF1" s="1" t="inlineStr">
+        <is>
+          <t>nonstudiousness</t>
+        </is>
+      </c>
+      <c r="ZG1" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="ZH1" s="1" t="inlineStr">
+        <is>
+          <t>preferred</t>
+        </is>
+      </c>
+      <c r="ZI1" s="1" t="inlineStr">
+        <is>
+          <t>questionnaires</t>
+        </is>
+      </c>
+      <c r="ZJ1" s="1" t="inlineStr">
+        <is>
+          <t>preference</t>
+        </is>
+      </c>
+      <c r="ZK1" s="1" t="inlineStr">
+        <is>
+          <t>present</t>
+        </is>
+      </c>
+      <c r="ZL1" s="1" t="inlineStr">
+        <is>
+          <t>preservice</t>
+        </is>
+      </c>
+      <c r="ZM1" s="1" t="inlineStr">
+        <is>
+          <t>rate</t>
+        </is>
+      </c>
+      <c r="ZN1" s="1" t="inlineStr">
+        <is>
+          <t>reminds</t>
+        </is>
+      </c>
+      <c r="ZO1" s="1" t="inlineStr">
+        <is>
+          <t>repeated</t>
+        </is>
+      </c>
+      <c r="ZP1" s="1" t="inlineStr">
+        <is>
+          <t>occur</t>
+        </is>
+      </c>
+      <c r="ZQ1" s="1" t="inlineStr">
+        <is>
+          <t>needs</t>
+        </is>
+      </c>
+      <c r="ZR1" s="1" t="inlineStr">
         <is>
           <t>replication</t>
         </is>
       </c>
-      <c r="WK1" s="1" t="inlineStr">
-        <is>
-          <t>months</t>
-        </is>
-      </c>
-      <c r="WL1" s="1" t="inlineStr">
+      <c r="ZS1" s="1" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="ZT1" s="1" t="inlineStr">
+        <is>
+          <t>respondents</t>
+        </is>
+      </c>
+      <c r="ZU1" s="1" t="inlineStr">
+        <is>
+          <t>questions</t>
+        </is>
+      </c>
+      <c r="ZV1" s="1" t="inlineStr">
+        <is>
+          <t>referred</t>
+        </is>
+      </c>
+      <c r="ZW1" s="1" t="inlineStr">
+        <is>
+          <t>observation</t>
+        </is>
+      </c>
+      <c r="ZX1" s="1" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="ZY1" s="1" t="inlineStr">
+        <is>
+          <t>consistency</t>
+        </is>
+      </c>
+      <c r="ZZ1" s="1" t="inlineStr">
+        <is>
+          <t>cultural</t>
+        </is>
+      </c>
+      <c r="AAA1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="AAB1" s="1" t="inlineStr">
+        <is>
+          <t>drawing</t>
+        </is>
+      </c>
+      <c r="AAC1" s="1" t="inlineStr">
+        <is>
+          <t>encouraging</t>
+        </is>
+      </c>
+      <c r="AAD1" s="1" t="inlineStr">
+        <is>
+          <t>evaluated</t>
+        </is>
+      </c>
+      <c r="AAE1" s="1" t="inlineStr">
+        <is>
+          <t>humor</t>
+        </is>
+      </c>
+      <c r="AAF1" s="1" t="inlineStr">
+        <is>
+          <t>interrater</t>
+        </is>
+      </c>
+      <c r="AAG1" s="1" t="inlineStr">
+        <is>
+          <t>personality</t>
+        </is>
+      </c>
+      <c r="AAH1" s="1" t="inlineStr">
+        <is>
+          <t>observed</t>
+        </is>
+      </c>
+      <c r="AAI1" s="1" t="inlineStr">
+        <is>
+          <t>obtained</t>
+        </is>
+      </c>
+      <c r="AAJ1" s="1" t="inlineStr">
+        <is>
+          <t>potential</t>
+        </is>
+      </c>
+      <c r="AAK1" s="1" t="inlineStr">
+        <is>
+          <t>previously</t>
+        </is>
+      </c>
+      <c r="AAL1" s="1" t="inlineStr">
+        <is>
+          <t>regard</t>
+        </is>
+      </c>
+      <c r="AAM1" s="1" t="inlineStr">
+        <is>
+          <t>sexy</t>
+        </is>
+      </c>
+      <c r="AAN1" s="1" t="inlineStr">
+        <is>
+          <t>concern</t>
+        </is>
+      </c>
+      <c r="AAO1" s="1" t="inlineStr">
+        <is>
+          <t>stability</t>
+        </is>
+      </c>
+      <c r="AAP1" s="1" t="inlineStr">
+        <is>
+          <t>story</t>
+        </is>
+      </c>
+      <c r="AAQ1" s="1" t="inlineStr">
+        <is>
+          <t>overexcitables</t>
+        </is>
+      </c>
+      <c r="AAR1" s="1" t="inlineStr">
+        <is>
+          <t>test-retest</t>
+        </is>
+      </c>
+      <c r="AAS1" s="1" t="inlineStr">
+        <is>
+          <t>thinking-drawing</t>
+        </is>
+      </c>
+      <c r="AAT1" s="1" t="inlineStr">
+        <is>
+          <t>unconventionality</t>
+        </is>
+      </c>
+      <c r="AAU1" s="1" t="inlineStr">
+        <is>
+          <t>overexcitabilities</t>
+        </is>
+      </c>
+      <c r="AAV1" s="1" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="AAW1" s="1" t="inlineStr">
+        <is>
+          <t>oes</t>
+        </is>
+      </c>
+      <c r="AAX1" s="1" t="inlineStr">
+        <is>
+          <t>resulted</t>
+        </is>
+      </c>
+      <c r="AAY1" s="1" t="inlineStr">
+        <is>
+          <t>oe</t>
+        </is>
+      </c>
+      <c r="AAZ1" s="1" t="inlineStr">
+        <is>
+          <t>nonidentified</t>
+        </is>
+      </c>
+      <c r="ABA1" s="1" t="inlineStr">
+        <is>
+          <t>nonidentical</t>
+        </is>
+      </c>
+      <c r="ABB1" s="1" t="inlineStr">
+        <is>
+          <t>named</t>
+        </is>
+      </c>
+      <c r="ABC1" s="1" t="inlineStr">
+        <is>
+          <t>concurrent</t>
+        </is>
+      </c>
+      <c r="ABD1" s="1" t="inlineStr">
+        <is>
+          <t>comparable</t>
+        </is>
+      </c>
+      <c r="ABE1" s="1" t="inlineStr">
+        <is>
+          <t>likert-scaled</t>
+        </is>
+      </c>
+      <c r="ABF1" s="1" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="ABG1" s="1" t="inlineStr">
+        <is>
+          <t>subscales</t>
+        </is>
+      </c>
+      <c r="ABH1" s="1" t="inlineStr">
+        <is>
+          <t>questionnaire-i</t>
+        </is>
+      </c>
+      <c r="ABI1" s="1" t="inlineStr">
+        <is>
+          <t>task</t>
+        </is>
+      </c>
+      <c r="ABJ1" s="1" t="inlineStr">
+        <is>
+          <t>noted</t>
+        </is>
+      </c>
+      <c r="ABK1" s="1" t="inlineStr">
+        <is>
+          <t>mccallum</t>
+        </is>
+      </c>
+      <c r="ABL1" s="1" t="inlineStr">
+        <is>
+          <t>march</t>
+        </is>
+      </c>
+      <c r="ABM1" s="1" t="inlineStr">
+        <is>
+          <t>lower</t>
+        </is>
+      </c>
+      <c r="ABN1" s="1" t="inlineStr">
+        <is>
+          <t>though</t>
+        </is>
+      </c>
+      <c r="ABO1" s="1" t="inlineStr">
+        <is>
+          <t>girls</t>
+        </is>
+      </c>
+      <c r="ABP1" s="1" t="inlineStr">
+        <is>
+          <t>effect</t>
+        </is>
+      </c>
+      <c r="ABQ1" s="1" t="inlineStr">
+        <is>
+          <t>difficulty</t>
+        </is>
+      </c>
+      <c r="ABR1" s="1" t="inlineStr">
+        <is>
+          <t>bell</t>
+        </is>
+      </c>
+      <c r="ABS1" s="1" t="inlineStr">
+        <is>
+          <t>attribution</t>
+        </is>
+      </c>
+      <c r="ABT1" s="1" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="ABU1" s="1" t="inlineStr">
+        <is>
+          <t>.01</t>
+        </is>
+      </c>
+      <c r="ABV1" s="1" t="inlineStr">
+        <is>
+          <t>pilot</t>
+        </is>
+      </c>
+      <c r="ABW1" s="1" t="inlineStr">
+        <is>
+          <t>within</t>
+        </is>
+      </c>
+      <c r="ABX1" s="1" t="inlineStr">
+        <is>
+          <t>varimax</t>
+        </is>
+      </c>
+      <c r="ABY1" s="1" t="inlineStr">
+        <is>
+          <t>using</t>
+        </is>
+      </c>
+      <c r="ABZ1" s="1" t="inlineStr">
+        <is>
+          <t>useful</t>
+        </is>
+      </c>
+      <c r="ACA1" s="1" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="ACB1" s="1" t="inlineStr">
+        <is>
+          <t>thus</t>
+        </is>
+      </c>
+      <c r="ACC1" s="1" t="inlineStr">
+        <is>
+          <t>strongest</t>
+        </is>
+      </c>
+      <c r="ACD1" s="1" t="inlineStr">
+        <is>
+          <t>scholars</t>
+        </is>
+      </c>
+      <c r="ACE1" s="1" t="inlineStr">
+        <is>
+          <t>rotation</t>
+        </is>
+      </c>
+      <c r="ACF1" s="1" t="inlineStr">
+        <is>
+          <t>revisions</t>
+        </is>
+      </c>
+      <c r="ACG1" s="1" t="inlineStr">
+        <is>
+          <t>predictive</t>
+        </is>
+      </c>
+      <c r="ACH1" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="ACI1" s="1" t="inlineStr">
+        <is>
+          <t>2,368</t>
+        </is>
+      </c>
+      <c r="ACJ1" s="1" t="inlineStr">
+        <is>
+          <t>aged</t>
+        </is>
+      </c>
+      <c r="ACK1" s="1" t="inlineStr">
+        <is>
+          <t>missed</t>
+        </is>
+      </c>
+      <c r="ACL1" s="1" t="inlineStr">
+        <is>
+          <t>loadings</t>
+        </is>
+      </c>
+      <c r="ACM1" s="1" t="inlineStr">
+        <is>
+          <t>progress</t>
+        </is>
+      </c>
+      <c r="ACN1" s="1" t="inlineStr">
+        <is>
+          <t>instructional</t>
+        </is>
+      </c>
+      <c r="ACO1" s="1" t="inlineStr">
+        <is>
+          <t>curriculum</t>
+        </is>
+      </c>
+      <c r="ACP1" s="1" t="inlineStr">
+        <is>
+          <t>defined</t>
+        </is>
+      </c>
+      <c r="ACQ1" s="1" t="inlineStr">
+        <is>
+          <t>differentiation</t>
+        </is>
+      </c>
+      <c r="ACR1" s="1" t="inlineStr">
+        <is>
+          <t>documenting</t>
+        </is>
+      </c>
+      <c r="ACS1" s="1" t="inlineStr">
+        <is>
+          <t>emerge</t>
+        </is>
+      </c>
+      <c r="ACT1" s="1" t="inlineStr">
+        <is>
+          <t>example</t>
+        </is>
+      </c>
+      <c r="ACU1" s="1" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="ACV1" s="1" t="inlineStr">
+        <is>
+          <t>conducted</t>
+        </is>
+      </c>
+      <c r="ACW1" s="1" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="ACX1" s="1" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
+      <c r="ACY1" s="1" t="inlineStr">
+        <is>
+          <t>patterns</t>
+        </is>
+      </c>
+      <c r="ACZ1" s="1" t="inlineStr">
+        <is>
+          <t>period</t>
+        </is>
+      </c>
+      <c r="ADA1" s="1" t="inlineStr">
+        <is>
+          <t>placement</t>
+        </is>
+      </c>
+      <c r="ADB1" s="1" t="inlineStr">
+        <is>
+          <t>processing</t>
+        </is>
+      </c>
+      <c r="ADC1" s="1" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="ADD1" s="1" t="inlineStr">
+        <is>
+          <t>capabilities</t>
+        </is>
+      </c>
+      <c r="ADE1" s="1" t="inlineStr">
+        <is>
+          <t>provide</t>
+        </is>
+      </c>
+      <c r="ADF1" s="1" t="inlineStr">
+        <is>
+          <t>estimates</t>
+        </is>
+      </c>
+      <c r="ADG1" s="1" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+      <c r="ADH1" s="1" t="inlineStr">
+        <is>
+          <t>range</t>
+        </is>
+      </c>
+      <c r="ADI1" s="1" t="inlineStr">
+        <is>
+          <t>settings</t>
+        </is>
+      </c>
+      <c r="ADJ1" s="1" t="inlineStr">
+        <is>
+          <t>predicted</t>
+        </is>
+      </c>
+      <c r="ADK1" s="1" t="inlineStr">
         <is>
           <t>socioeconomic</t>
         </is>
       </c>
-      <c r="WM1" s="1" t="inlineStr">
-        <is>
-          <t>moreover</t>
-        </is>
-      </c>
-      <c r="WN1" s="1" t="inlineStr">
-        <is>
-          <t>phonemic</t>
-        </is>
-      </c>
-      <c r="WO1" s="1" t="inlineStr">
-        <is>
-          <t>settings</t>
-        </is>
-      </c>
-      <c r="WP1" s="1" t="inlineStr">
-        <is>
-          <t>nonstudiousness</t>
-        </is>
-      </c>
-      <c r="WQ1" s="1" t="inlineStr">
-        <is>
-          <t>illustrative</t>
-        </is>
-      </c>
-      <c r="WR1" s="1" t="inlineStr">
-        <is>
-          <t>repeated</t>
-        </is>
-      </c>
-      <c r="WS1" s="1" t="inlineStr">
-        <is>
-          <t>fluently</t>
-        </is>
-      </c>
-      <c r="WT1" s="1" t="inlineStr">
-        <is>
-          <t>reminds</t>
-        </is>
-      </c>
-      <c r="WU1" s="1" t="inlineStr">
+      <c r="ADL1" s="1" t="inlineStr">
+        <is>
+          <t>moderate</t>
+        </is>
+      </c>
+      <c r="ADM1" s="1" t="inlineStr">
+        <is>
+          <t>controlling</t>
+        </is>
+      </c>
+      <c r="ADN1" s="1" t="inlineStr">
+        <is>
+          <t>books</t>
+        </is>
+      </c>
+      <c r="ADO1" s="1" t="inlineStr">
+        <is>
+          <t>congruence</t>
+        </is>
+      </c>
+      <c r="ADP1" s="1" t="inlineStr">
         <is>
           <t>cohorts</t>
         </is>
       </c>
-      <c r="WV1" s="1" t="inlineStr">
-        <is>
-          <t>rate</t>
-        </is>
-      </c>
-      <c r="WW1" s="1" t="inlineStr">
-        <is>
-          <t>homes</t>
-        </is>
-      </c>
-      <c r="WX1" s="1" t="inlineStr">
-        <is>
-          <t>varied</t>
-        </is>
-      </c>
-      <c r="WY1" s="1" t="inlineStr">
-        <is>
-          <t>views</t>
-        </is>
-      </c>
-      <c r="WZ1" s="1" t="inlineStr">
-        <is>
-          <t>present</t>
-        </is>
-      </c>
-      <c r="XA1" s="1" t="inlineStr">
-        <is>
-          <t>mindedness</t>
-        </is>
-      </c>
-      <c r="XB1" s="1" t="inlineStr">
-        <is>
-          <t>preferred</t>
-        </is>
-      </c>
-      <c r="XC1" s="1" t="inlineStr">
-        <is>
-          <t>nonathletic</t>
-        </is>
-      </c>
-      <c r="XD1" s="1" t="inlineStr">
-        <is>
-          <t>preservice</t>
-        </is>
-      </c>
-      <c r="XE1" s="1" t="inlineStr">
-        <is>
-          <t>range</t>
-        </is>
-      </c>
-      <c r="XF1" s="1" t="inlineStr">
-        <is>
-          <t>phonological</t>
-        </is>
-      </c>
-      <c r="XG1" s="1" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
-      <c r="XH1" s="1" t="inlineStr">
-        <is>
-          <t>congruence</t>
-        </is>
-      </c>
-      <c r="XI1" s="1" t="inlineStr">
-        <is>
-          <t>studious</t>
-        </is>
-      </c>
-      <c r="XJ1" s="1" t="inlineStr">
-        <is>
-          <t>controlling</t>
-        </is>
-      </c>
-      <c r="XK1" s="1" t="inlineStr">
-        <is>
-          <t>estimates</t>
-        </is>
-      </c>
-      <c r="XL1" s="1" t="inlineStr">
-        <is>
-          <t>tannenbaum</t>
-        </is>
-      </c>
-      <c r="XM1" s="1" t="inlineStr">
-        <is>
-          <t>traditionally</t>
-        </is>
-      </c>
-      <c r="XN1" s="1" t="inlineStr">
-        <is>
-          <t>u.s.</t>
-        </is>
-      </c>
-      <c r="XO1" s="1" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="XP1" s="1" t="inlineStr">
-        <is>
-          <t>predicted</t>
-        </is>
-      </c>
-      <c r="XQ1" s="1" t="inlineStr">
-        <is>
-          <t>wider</t>
-        </is>
-      </c>
-      <c r="XR1" s="1" t="inlineStr">
-        <is>
-          <t>went</t>
-        </is>
-      </c>
-      <c r="XS1" s="1" t="inlineStr">
-        <is>
-          <t>unable</t>
-        </is>
-      </c>
-      <c r="XT1" s="1" t="inlineStr">
-        <is>
-          <t>spelling</t>
-        </is>
-      </c>
-      <c r="XU1" s="1" t="inlineStr">
-        <is>
-          <t>resulted</t>
-        </is>
-      </c>
-      <c r="XV1" s="1" t="inlineStr">
-        <is>
-          <t>spell</t>
-        </is>
-      </c>
-      <c r="XW1" s="1" t="inlineStr">
-        <is>
-          <t>ubiquitous</t>
-        </is>
-      </c>
-      <c r="XX1" s="1" t="inlineStr">
-        <is>
-          <t>speed</t>
-        </is>
-      </c>
-      <c r="XY1" s="1" t="inlineStr">
-        <is>
-          <t>show</t>
-        </is>
-      </c>
-      <c r="XZ1" s="1" t="inlineStr">
-        <is>
-          <t>she</t>
-        </is>
-      </c>
-      <c r="YA1" s="1" t="inlineStr">
-        <is>
-          <t>us</t>
-        </is>
-      </c>
-      <c r="YB1" s="1" t="inlineStr">
-        <is>
-          <t>rating</t>
-        </is>
-      </c>
-      <c r="YC1" s="1" t="inlineStr">
-        <is>
-          <t>sport</t>
-        </is>
-      </c>
-      <c r="YD1" s="1" t="inlineStr">
-        <is>
-          <t>respondents</t>
-        </is>
-      </c>
-      <c r="YE1" s="1" t="inlineStr">
-        <is>
-          <t>usually</t>
-        </is>
-      </c>
-      <c r="YF1" s="1" t="inlineStr">
-        <is>
-          <t>pseudoword</t>
-        </is>
-      </c>
-      <c r="YG1" s="1" t="inlineStr">
-        <is>
-          <t>referred</t>
-        </is>
-      </c>
-      <c r="YH1" s="1" t="inlineStr">
-        <is>
-          <t>measuring</t>
-        </is>
-      </c>
-      <c r="YI1" s="1" t="inlineStr">
-        <is>
-          <t>troubling</t>
-        </is>
-      </c>
-      <c r="YJ1" s="1" t="inlineStr">
-        <is>
-          <t>martin</t>
-        </is>
-      </c>
-      <c r="YK1" s="1" t="inlineStr">
-        <is>
-          <t>heterogeneous</t>
-        </is>
-      </c>
-      <c r="YL1" s="1" t="inlineStr">
-        <is>
-          <t>forty-four</t>
-        </is>
-      </c>
-      <c r="YM1" s="1" t="inlineStr">
-        <is>
-          <t>finding</t>
-        </is>
-      </c>
-      <c r="YN1" s="1" t="inlineStr">
-        <is>
-          <t>feelings</t>
-        </is>
-      </c>
-      <c r="YO1" s="1" t="inlineStr">
-        <is>
-          <t>help</t>
-        </is>
-      </c>
-      <c r="YP1" s="1" t="inlineStr">
-        <is>
-          <t>enabled</t>
-        </is>
-      </c>
-      <c r="YQ1" s="1" t="inlineStr">
-        <is>
-          <t>join</t>
-        </is>
-      </c>
-      <c r="YR1" s="1" t="inlineStr">
-        <is>
-          <t>easier</t>
-        </is>
-      </c>
-      <c r="YS1" s="1" t="inlineStr">
-        <is>
-          <t>counselors</t>
-        </is>
-      </c>
-      <c r="YT1" s="1" t="inlineStr">
-        <is>
-          <t>contrasted</t>
-        </is>
-      </c>
-      <c r="YU1" s="1" t="inlineStr">
-        <is>
-          <t>conditions</t>
-        </is>
-      </c>
-      <c r="YV1" s="1" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="YW1" s="1" t="inlineStr">
-        <is>
-          <t>class</t>
-        </is>
-      </c>
-      <c r="YX1" s="1" t="inlineStr">
-        <is>
-          <t>clarify</t>
-        </is>
-      </c>
-      <c r="YY1" s="1" t="inlineStr">
-        <is>
-          <t>attain</t>
-        </is>
-      </c>
-      <c r="YZ1" s="1" t="inlineStr">
-        <is>
-          <t>5-11</t>
-        </is>
-      </c>
-      <c r="ZA1" s="1" t="inlineStr">
-        <is>
-          <t>grouped</t>
-        </is>
-      </c>
-      <c r="ZB1" s="1" t="inlineStr">
-        <is>
-          <t>heterogeneously</t>
-        </is>
-      </c>
-      <c r="ZC1" s="1" t="inlineStr">
-        <is>
-          <t>nominated</t>
-        </is>
-      </c>
-      <c r="ZD1" s="1" t="inlineStr">
-        <is>
-          <t>heterogenous</t>
-        </is>
-      </c>
-      <c r="ZE1" s="1" t="inlineStr">
-        <is>
-          <t>setting</t>
-        </is>
-      </c>
-      <c r="ZF1" s="1" t="inlineStr">
-        <is>
-          <t>seemed</t>
-        </is>
-      </c>
-      <c r="ZG1" s="1" t="inlineStr">
-        <is>
-          <t>represented</t>
-        </is>
-      </c>
-      <c r="ZH1" s="1" t="inlineStr">
-        <is>
-          <t>questions</t>
-        </is>
-      </c>
-      <c r="ZI1" s="1" t="inlineStr">
-        <is>
-          <t>questionnaires</t>
-        </is>
-      </c>
-      <c r="ZJ1" s="1" t="inlineStr">
-        <is>
-          <t>whole</t>
-        </is>
-      </c>
-      <c r="ZK1" s="1" t="inlineStr">
-        <is>
-          <t>preference</t>
-        </is>
-      </c>
-      <c r="ZL1" s="1" t="inlineStr">
-        <is>
-          <t>occur</t>
-        </is>
-      </c>
-      <c r="ZM1" s="1" t="inlineStr">
-        <is>
-          <t>needs</t>
-        </is>
-      </c>
-      <c r="ZN1" s="1" t="inlineStr">
-        <is>
-          <t>youth</t>
-        </is>
-      </c>
-      <c r="ZO1" s="1" t="inlineStr">
-        <is>
-          <t>acceptance</t>
-        </is>
-      </c>
-      <c r="ZP1" s="1" t="inlineStr">
-        <is>
-          <t>met</t>
-        </is>
-      </c>
-      <c r="ZQ1" s="1" t="inlineStr">
-        <is>
-          <t>interviews</t>
-        </is>
-      </c>
-      <c r="ZR1" s="1" t="inlineStr">
-        <is>
-          <t>homogeneously</t>
-        </is>
-      </c>
-      <c r="ZS1" s="1" t="inlineStr">
-        <is>
-          <t>attempting</t>
-        </is>
-      </c>
-      <c r="ZT1" s="1" t="inlineStr">
-        <is>
-          <t>maintenance</t>
-        </is>
-      </c>
-      <c r="ZU1" s="1" t="inlineStr">
+      <c r="ADQ1" s="1" t="inlineStr">
+        <is>
+          <t>9-month</t>
+        </is>
+      </c>
+      <c r="ADR1" s="1" t="inlineStr">
+        <is>
+          <t>and/or</t>
+        </is>
+      </c>
+      <c r="ADS1" s="1" t="inlineStr">
+        <is>
+          <t>appropriately</t>
+        </is>
+      </c>
+      <c r="ADT1" s="1" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="ADU1" s="1" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="ADV1" s="1" t="inlineStr">
+        <is>
+          <t>self-description</t>
+        </is>
+      </c>
+      <c r="ADW1" s="1" t="inlineStr">
+        <is>
+          <t>rarley</t>
+        </is>
+      </c>
+      <c r="ADX1" s="1" t="inlineStr">
+        <is>
+          <t>discriminated</t>
+        </is>
+      </c>
+      <c r="ADY1" s="1" t="inlineStr">
+        <is>
+          <t>classified</t>
+        </is>
+      </c>
+      <c r="ADZ1" s="1" t="inlineStr">
+        <is>
+          <t>comprised</t>
+        </is>
+      </c>
+      <c r="AEA1" s="1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="AEB1" s="1" t="inlineStr">
+        <is>
+          <t>creating</t>
+        </is>
+      </c>
+      <c r="AEC1" s="1" t="inlineStr">
+        <is>
+          <t>dabrowskian</t>
+        </is>
+      </c>
+      <c r="AED1" s="1" t="inlineStr">
+        <is>
+          <t>29-item</t>
+        </is>
+      </c>
+      <c r="AEE1" s="1" t="inlineStr">
+        <is>
+          <t>disintegration</t>
+        </is>
+      </c>
+      <c r="AEF1" s="1" t="inlineStr">
+        <is>
+          <t>charachteristics</t>
+        </is>
+      </c>
+      <c r="AEG1" s="1" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="AEH1" s="1" t="inlineStr">
+        <is>
+          <t>elementoe</t>
+        </is>
+      </c>
+      <c r="AEI1" s="1" t="inlineStr">
+        <is>
+          <t>eliminated</t>
+        </is>
+      </c>
+      <c r="AEJ1" s="1" t="inlineStr">
+        <is>
+          <t>exploratory</t>
+        </is>
+      </c>
+      <c r="AEK1" s="1" t="inlineStr">
+        <is>
+          <t>function</t>
+        </is>
+      </c>
+      <c r="AEL1" s="1" t="inlineStr">
         <is>
           <t>.85</t>
         </is>
       </c>
-      <c r="ZV1" s="1" t="inlineStr">
-        <is>
-          <t>korea</t>
-        </is>
-      </c>
-      <c r="ZW1" s="1" t="inlineStr">
-        <is>
-          <t>academics</t>
-        </is>
-      </c>
-      <c r="ZX1" s="1" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="ZY1" s="1" t="inlineStr">
-        <is>
-          <t>brilliant</t>
-        </is>
-      </c>
-      <c r="ZZ1" s="1" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="AAA1" s="1" t="inlineStr">
-        <is>
-          <t>characters</t>
-        </is>
-      </c>
-      <c r="AAB1" s="1" t="inlineStr">
-        <is>
-          <t>combinations</t>
-        </is>
-      </c>
-      <c r="AAC1" s="1" t="inlineStr">
-        <is>
-          <t>country</t>
-        </is>
-      </c>
-      <c r="AAD1" s="1" t="inlineStr">
-        <is>
-          <t>cramond</t>
-        </is>
-      </c>
-      <c r="AAE1" s="1" t="inlineStr">
-        <is>
-          <t>demonstrates</t>
-        </is>
-      </c>
-      <c r="AAF1" s="1" t="inlineStr">
-        <is>
-          <t>designated</t>
-        </is>
-      </c>
-      <c r="AAG1" s="1" t="inlineStr">
-        <is>
-          <t>especially</t>
-        </is>
-      </c>
-      <c r="AAH1" s="1" t="inlineStr">
-        <is>
-          <t>even</t>
-        </is>
-      </c>
-      <c r="AAI1" s="1" t="inlineStr">
-        <is>
-          <t>girl</t>
-        </is>
-      </c>
-      <c r="AAJ1" s="1" t="inlineStr">
-        <is>
-          <t>hypothetical</t>
-        </is>
-      </c>
-      <c r="AAK1" s="1" t="inlineStr">
-        <is>
-          <t>in-service</t>
-        </is>
-      </c>
-      <c r="AAL1" s="1" t="inlineStr">
-        <is>
-          <t>initiated</t>
-        </is>
-      </c>
-      <c r="AAM1" s="1" t="inlineStr">
-        <is>
-          <t>american</t>
-        </is>
-      </c>
-      <c r="AAN1" s="1" t="inlineStr">
-        <is>
-          <t>social/emotional</t>
-        </is>
-      </c>
-      <c r="AAO1" s="1" t="inlineStr">
-        <is>
-          <t>287</t>
-        </is>
-      </c>
-      <c r="AAP1" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AAQ1" s="1" t="inlineStr">
-        <is>
-          <t>notable</t>
-        </is>
-      </c>
-      <c r="AAR1" s="1" t="inlineStr">
-        <is>
-          <t>29-item</t>
-        </is>
-      </c>
-      <c r="AAS1" s="1" t="inlineStr">
-        <is>
-          <t>predicting</t>
-        </is>
-      </c>
-      <c r="AAT1" s="1" t="inlineStr">
-        <is>
-          <t>preventive</t>
-        </is>
-      </c>
-      <c r="AAU1" s="1" t="inlineStr">
-        <is>
-          <t>promotion</t>
-        </is>
-      </c>
-      <c r="AAV1" s="1" t="inlineStr">
+      <c r="AEM1" s="1" t="inlineStr">
+        <is>
+          <t>seldom</t>
+        </is>
+      </c>
+      <c r="AEN1" s="1" t="inlineStr">
         <is>
           <t>387</t>
         </is>
       </c>
-      <c r="AAW1" s="1" t="inlineStr">
-        <is>
-          <t>resoning</t>
-        </is>
-      </c>
-      <c r="AAX1" s="1" t="inlineStr">
-        <is>
-          <t>response</t>
-        </is>
-      </c>
-      <c r="AAY1" s="1" t="inlineStr">
-        <is>
-          <t>symptoms</t>
-        </is>
-      </c>
-      <c r="AAZ1" s="1" t="inlineStr">
-        <is>
-          <t>university</t>
-        </is>
-      </c>
-      <c r="ABA1" s="1" t="inlineStr">
-        <is>
-          <t>drawn</t>
-        </is>
-      </c>
-      <c r="ABB1" s="1" t="inlineStr">
-        <is>
-          <t>valuing</t>
-        </is>
-      </c>
-      <c r="ABC1" s="1" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="ABD1" s="1" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
-      </c>
-      <c r="ABE1" s="1" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
-      </c>
-      <c r="ABF1" s="1" t="inlineStr">
-        <is>
-          <t>explicit</t>
-        </is>
-      </c>
-      <c r="ABG1" s="1" t="inlineStr">
-        <is>
-          <t>revisions</t>
-        </is>
-      </c>
-      <c r="ABH1" s="1" t="inlineStr">
-        <is>
-          <t>contrasts</t>
-        </is>
-      </c>
-      <c r="ABI1" s="1" t="inlineStr">
-        <is>
-          <t>patterns</t>
-        </is>
-      </c>
-      <c r="ABJ1" s="1" t="inlineStr">
-        <is>
-          <t>example</t>
-        </is>
-      </c>
-      <c r="ABK1" s="1" t="inlineStr">
-        <is>
-          <t>aged</t>
-        </is>
-      </c>
-      <c r="ABL1" s="1" t="inlineStr">
-        <is>
-          <t>2,368</t>
-        </is>
-      </c>
-      <c r="ABM1" s="1" t="inlineStr">
-        <is>
-          <t>continued</t>
-        </is>
-      </c>
-      <c r="ABN1" s="1" t="inlineStr">
-        <is>
-          <t>for</t>
-        </is>
-      </c>
-      <c r="ABO1" s="1" t="inlineStr">
-        <is>
-          <t>instructional</t>
-        </is>
-      </c>
-      <c r="ABP1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="ABQ1" s="1" t="inlineStr">
-        <is>
-          <t>level</t>
-        </is>
-      </c>
-      <c r="ABR1" s="1" t="inlineStr">
-        <is>
-          <t>multiple</t>
-        </is>
-      </c>
-      <c r="ABS1" s="1" t="inlineStr">
-        <is>
-          <t>period</t>
-        </is>
-      </c>
-      <c r="ABT1" s="1" t="inlineStr">
-        <is>
-          <t>books</t>
-        </is>
-      </c>
-      <c r="ABU1" s="1" t="inlineStr">
-        <is>
-          <t>placement</t>
-        </is>
-      </c>
-      <c r="ABV1" s="1" t="inlineStr">
-        <is>
-          <t>processing</t>
-        </is>
-      </c>
-      <c r="ABW1" s="1" t="inlineStr">
-        <is>
-          <t>progress</t>
-        </is>
-      </c>
-      <c r="ABX1" s="1" t="inlineStr">
-        <is>
-          <t>provide</t>
-        </is>
-      </c>
-      <c r="ABY1" s="1" t="inlineStr">
-        <is>
-          <t>rarley</t>
-        </is>
-      </c>
-      <c r="ABZ1" s="1" t="inlineStr">
-        <is>
-          <t>seldom</t>
-        </is>
-      </c>
-      <c r="ACA1" s="1" t="inlineStr">
+      <c r="AEO1" s="1" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="AEP1" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AEQ1" s="1" t="inlineStr">
         <is>
           <t>seventh</t>
         </is>
       </c>
-      <c r="ACB1" s="1" t="inlineStr">
+      <c r="AER1" s="1" t="inlineStr">
         <is>
           <t>team</t>
         </is>
       </c>
-      <c r="ACC1" s="1" t="inlineStr">
+      <c r="AES1" s="1" t="inlineStr">
         <is>
           <t>third-and</t>
         </is>
       </c>
-      <c r="ACD1" s="1" t="inlineStr">
-        <is>
-          <t>emerge</t>
-        </is>
-      </c>
-      <c r="ACE1" s="1" t="inlineStr">
-        <is>
-          <t>comparable</t>
-        </is>
-      </c>
-      <c r="ACF1" s="1" t="inlineStr">
-        <is>
-          <t>concern</t>
-        </is>
-      </c>
-      <c r="ACG1" s="1" t="inlineStr">
-        <is>
-          <t>concurrent</t>
-        </is>
-      </c>
-      <c r="ACH1" s="1" t="inlineStr">
-        <is>
-          <t>previously</t>
-        </is>
-      </c>
-      <c r="ACI1" s="1" t="inlineStr">
-        <is>
-          <t>potential</t>
-        </is>
-      </c>
-      <c r="ACJ1" s="1" t="inlineStr">
-        <is>
-          <t>our</t>
-        </is>
-      </c>
-      <c r="ACK1" s="1" t="inlineStr">
-        <is>
-          <t>obtained</t>
-        </is>
-      </c>
-      <c r="ACL1" s="1" t="inlineStr">
-        <is>
-          <t>observed</t>
-        </is>
-      </c>
-      <c r="ACM1" s="1" t="inlineStr">
-        <is>
-          <t>conducted</t>
-        </is>
-      </c>
-      <c r="ACN1" s="1" t="inlineStr">
-        <is>
-          <t>interrater</t>
-        </is>
-      </c>
-      <c r="ACO1" s="1" t="inlineStr">
-        <is>
-          <t>continuous</t>
-        </is>
-      </c>
-      <c r="ACP1" s="1" t="inlineStr">
-        <is>
-          <t>humor</t>
-        </is>
-      </c>
-      <c r="ACQ1" s="1" t="inlineStr">
-        <is>
-          <t>curriculum</t>
-        </is>
-      </c>
-      <c r="ACR1" s="1" t="inlineStr">
-        <is>
-          <t>defined</t>
-        </is>
-      </c>
-      <c r="ACS1" s="1" t="inlineStr">
-        <is>
-          <t>differentiation</t>
-        </is>
-      </c>
-      <c r="ACT1" s="1" t="inlineStr">
-        <is>
-          <t>evaluated</t>
-        </is>
-      </c>
-      <c r="ACU1" s="1" t="inlineStr">
-        <is>
-          <t>documenting</t>
-        </is>
-      </c>
-      <c r="ACV1" s="1" t="inlineStr">
-        <is>
-          <t>encouraging</t>
-        </is>
-      </c>
-      <c r="ACW1" s="1" t="inlineStr">
-        <is>
-          <t>drawing</t>
-        </is>
-      </c>
-      <c r="ACX1" s="1" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="ACY1" s="1" t="inlineStr">
-        <is>
-          <t>cultural</t>
-        </is>
-      </c>
-      <c r="ACZ1" s="1" t="inlineStr">
-        <is>
-          <t>consistency</t>
-        </is>
-      </c>
-      <c r="ADA1" s="1" t="inlineStr">
+      <c r="AET1" s="1" t="inlineStr">
         <is>
           <t>urban</t>
         </is>
       </c>
-      <c r="ADB1" s="1" t="inlineStr">
+      <c r="AEU1" s="1" t="inlineStr">
         <is>
           <t>whether</t>
         </is>
       </c>
-      <c r="ADC1" s="1" t="inlineStr">
+      <c r="AEV1" s="1" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="AEW1" s="1" t="inlineStr">
         <is>
           <t>.5</t>
         </is>
       </c>
-      <c r="ADD1" s="1" t="inlineStr">
-        <is>
-          <t>missed</t>
-        </is>
-      </c>
-      <c r="ADE1" s="1" t="inlineStr">
-        <is>
-          <t>nonidentical</t>
-        </is>
-      </c>
-      <c r="ADF1" s="1" t="inlineStr">
-        <is>
-          <t>nonidentified</t>
-        </is>
-      </c>
-      <c r="ADG1" s="1" t="inlineStr">
-        <is>
-          <t>observation</t>
-        </is>
-      </c>
-      <c r="ADH1" s="1" t="inlineStr">
-        <is>
-          <t>oe</t>
-        </is>
-      </c>
-      <c r="ADI1" s="1" t="inlineStr">
-        <is>
-          <t>oes</t>
-        </is>
-      </c>
-      <c r="ADJ1" s="1" t="inlineStr">
-        <is>
-          <t>one</t>
-        </is>
-      </c>
-      <c r="ADK1" s="1" t="inlineStr">
-        <is>
-          <t>overexcitabilities</t>
-        </is>
-      </c>
-      <c r="ADL1" s="1" t="inlineStr">
-        <is>
-          <t>overexcitables</t>
-        </is>
-      </c>
-      <c r="ADM1" s="1" t="inlineStr">
-        <is>
-          <t>within</t>
-        </is>
-      </c>
-      <c r="ADN1" s="1" t="inlineStr">
-        <is>
-          <t>varimax</t>
-        </is>
-      </c>
-      <c r="ADO1" s="1" t="inlineStr">
-        <is>
-          <t>using</t>
-        </is>
-      </c>
-      <c r="ADP1" s="1" t="inlineStr">
-        <is>
-          <t>useful</t>
-        </is>
-      </c>
-      <c r="ADQ1" s="1" t="inlineStr">
-        <is>
-          <t>personality</t>
-        </is>
-      </c>
-      <c r="ADR1" s="1" t="inlineStr">
-        <is>
-          <t>traditional</t>
-        </is>
-      </c>
-      <c r="ADS1" s="1" t="inlineStr">
-        <is>
-          <t>thus</t>
-        </is>
-      </c>
-      <c r="ADT1" s="1" t="inlineStr">
-        <is>
-          <t>pilot</t>
-        </is>
-      </c>
-      <c r="ADU1" s="1" t="inlineStr">
-        <is>
-          <t>strongest</t>
-        </is>
-      </c>
-      <c r="ADV1" s="1" t="inlineStr">
-        <is>
-          <t>predictive</t>
-        </is>
-      </c>
-      <c r="ADW1" s="1" t="inlineStr">
-        <is>
-          <t>scholars</t>
-        </is>
-      </c>
-      <c r="ADX1" s="1" t="inlineStr">
-        <is>
-          <t>named</t>
-        </is>
-      </c>
-      <c r="ADY1" s="1" t="inlineStr">
-        <is>
-          <t>loadings</t>
-        </is>
-      </c>
-      <c r="ADZ1" s="1" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="AEA1" s="1" t="inlineStr">
-        <is>
-          <t>likert-scaled</t>
-        </is>
-      </c>
-      <c r="AEB1" s="1" t="inlineStr">
+      <c r="AEX1" s="1" t="inlineStr">
         <is>
           <t>171</t>
         </is>
       </c>
-      <c r="AEC1" s="1" t="inlineStr">
+      <c r="AEY1" s="1" t="inlineStr">
         <is>
           <t>30-item</t>
         </is>
       </c>
-      <c r="AED1" s="1" t="inlineStr">
+      <c r="AEZ1" s="1" t="inlineStr">
         <is>
           <t>373</t>
         </is>
       </c>
-      <c r="AEE1" s="1" t="inlineStr">
+      <c r="AFA1" s="1" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="AEF1" s="1" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="AEG1" s="1" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="AEH1" s="1" t="inlineStr">
-        <is>
-          <t>charachteristics</t>
-        </is>
-      </c>
-      <c r="AEI1" s="1" t="inlineStr">
-        <is>
-          <t>classified</t>
-        </is>
-      </c>
-      <c r="AEJ1" s="1" t="inlineStr">
-        <is>
-          <t>comprised</t>
-        </is>
-      </c>
-      <c r="AEK1" s="1" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="AEL1" s="1" t="inlineStr">
-        <is>
-          <t>creating</t>
-        </is>
-      </c>
-      <c r="AEM1" s="1" t="inlineStr">
-        <is>
-          <t>dabrowskian</t>
-        </is>
-      </c>
-      <c r="AEN1" s="1" t="inlineStr">
-        <is>
-          <t>discriminated</t>
-        </is>
-      </c>
-      <c r="AEO1" s="1" t="inlineStr">
-        <is>
-          <t>disintegration</t>
-        </is>
-      </c>
-      <c r="AEP1" s="1" t="inlineStr">
-        <is>
-          <t>elementoe</t>
-        </is>
-      </c>
-      <c r="AEQ1" s="1" t="inlineStr">
-        <is>
-          <t>eliminated</t>
-        </is>
-      </c>
-      <c r="AER1" s="1" t="inlineStr">
-        <is>
-          <t>exploratory</t>
-        </is>
-      </c>
-      <c r="AES1" s="1" t="inlineStr">
-        <is>
-          <t>function</t>
-        </is>
-      </c>
-      <c r="AET1" s="1" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="AEU1" s="1" t="inlineStr">
-        <is>
-          <t>capabilities</t>
-        </is>
-      </c>
-      <c r="AEV1" s="1" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AEW1" s="1" t="inlineStr">
-        <is>
-          <t>regard</t>
-        </is>
-      </c>
-      <c r="AEX1" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AEY1" s="1" t="inlineStr">
-        <is>
-          <t>rotation</t>
-        </is>
-      </c>
-      <c r="AEZ1" s="1" t="inlineStr">
-        <is>
-          <t>unconventionality</t>
-        </is>
-      </c>
-      <c r="AFA1" s="1" t="inlineStr">
-        <is>
-          <t>thinking-drawing</t>
-        </is>
-      </c>
       <c r="AFB1" s="1" t="inlineStr">
         <is>
-          <t>test-retest</t>
+          <t>phobias</t>
         </is>
       </c>
       <c r="AFC1" s="1" t="inlineStr">
         <is>
-          <t>9-month</t>
+          <t>batteries</t>
         </is>
       </c>
       <c r="AFD1" s="1" t="inlineStr">
         <is>
-          <t>appropriately</t>
+          <t>non-gifted</t>
         </is>
       </c>
       <c r="AFE1" s="1" t="inlineStr">
         <is>
-          <t>story</t>
+          <t>abilities</t>
         </is>
       </c>
       <c r="AFF1" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>psychosocial</t>
         </is>
       </c>
       <c r="AFG1" s="1" t="inlineStr">
         <is>
-          <t>and/or</t>
+          <t>creativity</t>
         </is>
       </c>
       <c r="AFH1" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>young</t>
         </is>
       </c>
       <c r="AFI1" s="1" t="inlineStr">
         <is>
-          <t>ages</t>
+          <t>rosenberg</t>
         </is>
       </c>
       <c r="AFJ1" s="1" t="inlineStr">
         <is>
-          <t>sex</t>
+          <t>scale-were</t>
         </is>
       </c>
       <c r="AFK1" s="1" t="inlineStr">
         <is>
-          <t>able</t>
+          <t>scales-the</t>
         </is>
       </c>
       <c r="AFL1" s="1" t="inlineStr">
         <is>
-          <t>aspects</t>
+          <t>state</t>
         </is>
       </c>
       <c r="AFM1" s="1" t="inlineStr">
         <is>
-          <t>stability</t>
+          <t>tend</t>
         </is>
       </c>
       <c r="AFN1" s="1" t="inlineStr">
         <is>
-          <t>sexy</t>
+          <t>underachievers</t>
         </is>
       </c>
       <c r="AFO1" s="1" t="inlineStr">
         <is>
-          <t>accurate</t>
+          <t>demonstrated</t>
         </is>
       </c>
       <c r="AFP1" s="1" t="inlineStr">
         <is>
-          <t>available</t>
+          <t>writers</t>
         </is>
       </c>
       <c r="AFQ1" s="1" t="inlineStr">
         <is>
+          <t>decrease</t>
+        </is>
+      </c>
+      <c r="AFR1" s="1" t="inlineStr">
+        <is>
+          <t>solving</t>
+        </is>
+      </c>
+      <c r="AFS1" s="1" t="inlineStr">
+        <is>
+          <t>difference</t>
+        </is>
+      </c>
+      <c r="AFT1" s="1" t="inlineStr">
+        <is>
+          <t>frost</t>
+        </is>
+      </c>
+      <c r="AFU1" s="1" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="AFV1" s="1" t="inlineStr">
+        <is>
+          <t>enrolled</t>
+        </is>
+      </c>
+      <c r="AFW1" s="1" t="inlineStr">
+        <is>
+          <t>document</t>
+        </is>
+      </c>
+      <c r="AFX1" s="1" t="inlineStr">
+        <is>
+          <t>directly</t>
+        </is>
+      </c>
+      <c r="AFY1" s="1" t="inlineStr">
+        <is>
+          <t>directions</t>
+        </is>
+      </c>
+      <c r="AFZ1" s="1" t="inlineStr">
+        <is>
+          <t>cope</t>
+        </is>
+      </c>
+      <c r="AGA1" s="1" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="AGB1" s="1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AGC1" s="1" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="AGD1" s="1" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AGE1" s="1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AGF1" s="1" t="inlineStr">
+        <is>
+          <t>2-step</t>
+        </is>
+      </c>
+      <c r="AGG1" s="1" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="AGH1" s="1" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="AGI1" s="1" t="inlineStr">
+        <is>
+          <t>administered</t>
+        </is>
+      </c>
+      <c r="AGJ1" s="1" t="inlineStr">
+        <is>
+          <t>artists</t>
+        </is>
+      </c>
+      <c r="AGK1" s="1" t="inlineStr">
+        <is>
+          <t>attitude</t>
+        </is>
+      </c>
+      <c r="AGL1" s="1" t="inlineStr">
+        <is>
+          <t>dropped</t>
+        </is>
+      </c>
+      <c r="AGM1" s="1" t="inlineStr">
+        <is>
+          <t>authoritarive</t>
+        </is>
+      </c>
+      <c r="AGN1" s="1" t="inlineStr">
+        <is>
+          <t>four</t>
+        </is>
+      </c>
+      <c r="AGO1" s="1" t="inlineStr">
+        <is>
+          <t>hopkins</t>
+        </is>
+      </c>
+      <c r="AGP1" s="1" t="inlineStr">
+        <is>
+          <t>conduct</t>
+        </is>
+      </c>
+      <c r="AGQ1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="AGR1" s="1" t="inlineStr">
+        <is>
+          <t>takes</t>
+        </is>
+      </c>
+      <c r="AGS1" s="1" t="inlineStr">
+        <is>
+          <t>symptomatology</t>
+        </is>
+      </c>
+      <c r="AGT1" s="1" t="inlineStr">
+        <is>
+          <t>state-funded</t>
+        </is>
+      </c>
+      <c r="AGU1" s="1" t="inlineStr">
+        <is>
+          <t>self-image</t>
+        </is>
+      </c>
+      <c r="AGV1" s="1" t="inlineStr">
+        <is>
+          <t>self-assured</t>
+        </is>
+      </c>
+      <c r="AGW1" s="1" t="inlineStr">
+        <is>
+          <t>security</t>
+        </is>
+      </c>
+      <c r="AGX1" s="1" t="inlineStr">
+        <is>
+          <t>rosenblate</t>
+        </is>
+      </c>
+      <c r="AGY1" s="1" t="inlineStr">
+        <is>
+          <t>revealed</t>
+        </is>
+      </c>
+      <c r="AGZ1" s="1" t="inlineStr">
+        <is>
+          <t>responded</t>
+        </is>
+      </c>
+      <c r="AHA1" s="1" t="inlineStr">
+        <is>
+          <t>relative</t>
+        </is>
+      </c>
+      <c r="AHB1" s="1" t="inlineStr">
+        <is>
+          <t>psychiatric</t>
+        </is>
+      </c>
+      <c r="AHC1" s="1" t="inlineStr">
+        <is>
+          <t>profile</t>
+        </is>
+      </c>
+      <c r="AHD1" s="1" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="AHE1" s="1" t="inlineStr">
+        <is>
+          <t>nonperfectionists</t>
+        </is>
+      </c>
+      <c r="AHF1" s="1" t="inlineStr">
+        <is>
+          <t>marten</t>
+        </is>
+      </c>
+      <c r="AHG1" s="1" t="inlineStr">
+        <is>
+          <t>maladaptive</t>
+        </is>
+      </c>
+      <c r="AHH1" s="1" t="inlineStr">
+        <is>
+          <t>lahart</t>
+        </is>
+      </c>
+      <c r="AHI1" s="1" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="AHJ1" s="1" t="inlineStr">
+        <is>
+          <t>indices</t>
+        </is>
+      </c>
+      <c r="AHK1" s="1" t="inlineStr">
+        <is>
+          <t>authoritative</t>
+        </is>
+      </c>
+      <c r="AHL1" s="1" t="inlineStr">
+        <is>
+          <t>authority</t>
+        </is>
+      </c>
+      <c r="AHM1" s="1" t="inlineStr">
+        <is>
+          <t>correlates</t>
+        </is>
+      </c>
+      <c r="AHN1" s="1" t="inlineStr">
+        <is>
+          <t>saw</t>
+        </is>
+      </c>
+      <c r="AHO1" s="1" t="inlineStr">
+        <is>
+          <t>compares</t>
+        </is>
+      </c>
+      <c r="AHP1" s="1" t="inlineStr">
+        <is>
+          <t>comparing</t>
+        </is>
+      </c>
+      <c r="AHQ1" s="1" t="inlineStr">
+        <is>
+          <t>comparisons</t>
+        </is>
+      </c>
+      <c r="AHR1" s="1" t="inlineStr">
+        <is>
+          <t>conceptualizations</t>
+        </is>
+      </c>
+      <c r="AHS1" s="1" t="inlineStr">
+        <is>
+          <t>versus</t>
+        </is>
+      </c>
+      <c r="AHT1" s="1" t="inlineStr">
+        <is>
+          <t>valued</t>
+        </is>
+      </c>
+      <c r="AHU1" s="1" t="inlineStr">
+        <is>
+          <t>distinguished</t>
+        </is>
+      </c>
+      <c r="AHV1" s="1" t="inlineStr">
+        <is>
+          <t>either</t>
+        </is>
+      </c>
+      <c r="AHW1" s="1" t="inlineStr">
+        <is>
+          <t>unidimensional</t>
+        </is>
+      </c>
+      <c r="AHX1" s="1" t="inlineStr">
+        <is>
+          <t>expending</t>
+        </is>
+      </c>
+      <c r="AHY1" s="1" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="AHZ1" s="1" t="inlineStr">
+        <is>
+          <t>forth</t>
+        </is>
+      </c>
+      <c r="AIA1" s="1" t="inlineStr">
+        <is>
+          <t>kept</t>
+        </is>
+      </c>
+      <c r="AIB1" s="1" t="inlineStr">
+        <is>
+          <t>impacts</t>
+        </is>
+      </c>
+      <c r="AIC1" s="1" t="inlineStr">
+        <is>
+          <t>numerous</t>
+        </is>
+      </c>
+      <c r="AID1" s="1" t="inlineStr">
+        <is>
+          <t>put</t>
+        </is>
+      </c>
+      <c r="AIE1" s="1" t="inlineStr">
+        <is>
+          <t>transition</t>
+        </is>
+      </c>
+      <c r="AIF1" s="1" t="inlineStr">
+        <is>
+          <t>theoretical</t>
+        </is>
+      </c>
+      <c r="AIG1" s="1" t="inlineStr">
+        <is>
+          <t>self-efficacy</t>
+        </is>
+      </c>
+      <c r="AIH1" s="1" t="inlineStr">
+        <is>
+          <t>fewer</t>
+        </is>
+      </c>
+      <c r="AII1" s="1" t="inlineStr">
+        <is>
+          <t>beliefs</t>
+        </is>
+      </c>
+      <c r="AIJ1" s="1" t="inlineStr">
+        <is>
+          <t>isreal</t>
+        </is>
+      </c>
+      <c r="AIK1" s="1" t="inlineStr">
+        <is>
+          <t>pretests</t>
+        </is>
+      </c>
+      <c r="AIL1" s="1" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="AIM1" s="1" t="inlineStr">
+        <is>
           <t>flexibility</t>
         </is>
       </c>
-      <c r="AFR1" s="1" t="inlineStr">
+      <c r="AIN1" s="1" t="inlineStr">
+        <is>
+          <t>negatively</t>
+        </is>
+      </c>
+      <c r="AIO1" s="1" t="inlineStr">
         <is>
           <t>originality</t>
         </is>
       </c>
-      <c r="AFS1" s="1" t="inlineStr">
-        <is>
-          <t>pretests</t>
-        </is>
-      </c>
-      <c r="AFT1" s="1" t="inlineStr">
-        <is>
-          <t>artists</t>
-        </is>
-      </c>
-      <c r="AFU1" s="1" t="inlineStr">
+      <c r="AIP1" s="1" t="inlineStr">
         <is>
           <t>performances</t>
         </is>
       </c>
-      <c r="AFV1" s="1" t="inlineStr">
+      <c r="AIQ1" s="1" t="inlineStr">
         <is>
           <t>posttest</t>
         </is>
       </c>
-      <c r="AFW1" s="1" t="inlineStr">
+      <c r="AIR1" s="1" t="inlineStr">
         <is>
           <t>posttests</t>
         </is>
       </c>
-      <c r="AFX1" s="1" t="inlineStr">
-        <is>
-          <t>finished</t>
-        </is>
-      </c>
-      <c r="AFY1" s="1" t="inlineStr">
-        <is>
-          <t>attitude</t>
-        </is>
-      </c>
-      <c r="AFZ1" s="1" t="inlineStr">
-        <is>
-          <t>authoritarive</t>
-        </is>
-      </c>
-      <c r="AGA1" s="1" t="inlineStr">
-        <is>
-          <t>authoritative</t>
-        </is>
-      </c>
-      <c r="AGB1" s="1" t="inlineStr">
+      <c r="AIS1" s="1" t="inlineStr">
+        <is>
+          <t>crucial</t>
+        </is>
+      </c>
+      <c r="AIT1" s="1" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="AIU1" s="1" t="inlineStr">
+        <is>
+          <t>variability</t>
+        </is>
+      </c>
+      <c r="AIV1" s="1" t="inlineStr">
+        <is>
+          <t>seventeen</t>
+        </is>
+      </c>
+      <c r="AIW1" s="1" t="inlineStr">
+        <is>
+          <t>displayed</t>
+        </is>
+      </c>
+      <c r="AIX1" s="1" t="inlineStr">
+        <is>
+          <t>significant</t>
+        </is>
+      </c>
+      <c r="AIY1" s="1" t="inlineStr">
+        <is>
+          <t>eminent</t>
+        </is>
+      </c>
+      <c r="AIZ1" s="1" t="inlineStr">
+        <is>
+          <t>uniformly</t>
+        </is>
+      </c>
+      <c r="AJA1" s="1" t="inlineStr">
+        <is>
+          <t>tasks</t>
+        </is>
+      </c>
+      <c r="AJB1" s="1" t="inlineStr">
+        <is>
+          <t>lipsitt</t>
+        </is>
+      </c>
+      <c r="AJC1" s="1" t="inlineStr">
         <is>
           <t>torrance</t>
         </is>
       </c>
-      <c r="AGC1" s="1" t="inlineStr">
-        <is>
-          <t>problem</t>
-        </is>
-      </c>
-      <c r="AGD1" s="1" t="inlineStr">
-        <is>
-          <t>seventeen</t>
-        </is>
-      </c>
-      <c r="AGE1" s="1" t="inlineStr">
-        <is>
-          <t>significant</t>
-        </is>
-      </c>
-      <c r="AGF1" s="1" t="inlineStr">
-        <is>
-          <t>solving</t>
-        </is>
-      </c>
-      <c r="AGG1" s="1" t="inlineStr">
-        <is>
-          <t>authority</t>
-        </is>
-      </c>
-      <c r="AGH1" s="1" t="inlineStr">
-        <is>
-          <t>tasks</t>
-        </is>
-      </c>
-      <c r="AGI1" s="1" t="inlineStr">
-        <is>
-          <t>conduct</t>
-        </is>
-      </c>
-      <c r="AGJ1" s="1" t="inlineStr">
-        <is>
-          <t>difference</t>
-        </is>
-      </c>
-      <c r="AGK1" s="1" t="inlineStr">
-        <is>
-          <t>variability</t>
-        </is>
-      </c>
-      <c r="AGL1" s="1" t="inlineStr">
-        <is>
-          <t>beliefs</t>
-        </is>
-      </c>
-      <c r="AGM1" s="1" t="inlineStr">
-        <is>
-          <t>compares</t>
-        </is>
-      </c>
-      <c r="AGN1" s="1" t="inlineStr">
-        <is>
-          <t>dropped</t>
-        </is>
-      </c>
-      <c r="AGO1" s="1" t="inlineStr">
-        <is>
-          <t>task</t>
-        </is>
-      </c>
-      <c r="AGP1" s="1" t="inlineStr">
-        <is>
-          <t>demonstrated</t>
-        </is>
-      </c>
-      <c r="AGQ1" s="1" t="inlineStr">
-        <is>
-          <t>decrease</t>
-        </is>
-      </c>
-      <c r="AGR1" s="1" t="inlineStr">
-        <is>
-          <t>.01</t>
-        </is>
-      </c>
-      <c r="AGS1" s="1" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="AGT1" s="1" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
-      </c>
-      <c r="AGU1" s="1" t="inlineStr">
-        <is>
-          <t>attribution</t>
-        </is>
-      </c>
-      <c r="AGV1" s="1" t="inlineStr">
-        <is>
-          <t>bell</t>
-        </is>
-      </c>
-      <c r="AGW1" s="1" t="inlineStr">
-        <is>
-          <t>difficulty</t>
-        </is>
-      </c>
-      <c r="AGX1" s="1" t="inlineStr">
-        <is>
-          <t>effect</t>
-        </is>
-      </c>
-      <c r="AGY1" s="1" t="inlineStr">
-        <is>
-          <t>girls</t>
-        </is>
-      </c>
-      <c r="AGZ1" s="1" t="inlineStr">
-        <is>
-          <t>lower</t>
-        </is>
-      </c>
-      <c r="AHA1" s="1" t="inlineStr">
-        <is>
-          <t>march</t>
-        </is>
-      </c>
-      <c r="AHB1" s="1" t="inlineStr">
-        <is>
-          <t>mccallum</t>
-        </is>
-      </c>
-      <c r="AHC1" s="1" t="inlineStr">
-        <is>
-          <t>noted</t>
-        </is>
-      </c>
-      <c r="AHD1" s="1" t="inlineStr">
-        <is>
-          <t>questionnaire-i</t>
-        </is>
-      </c>
-      <c r="AHE1" s="1" t="inlineStr">
-        <is>
-          <t>self-description</t>
-        </is>
-      </c>
-      <c r="AHF1" s="1" t="inlineStr">
-        <is>
-          <t>subscales</t>
-        </is>
-      </c>
-      <c r="AHG1" s="1" t="inlineStr">
-        <is>
-          <t>comparisons</t>
-        </is>
-      </c>
-      <c r="AHH1" s="1" t="inlineStr">
-        <is>
-          <t>though</t>
-        </is>
-      </c>
-      <c r="AHI1" s="1" t="inlineStr">
-        <is>
-          <t>abilities</t>
-        </is>
-      </c>
-      <c r="AHJ1" s="1" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="AHK1" s="1" t="inlineStr">
-        <is>
-          <t>batteries</t>
-        </is>
-      </c>
-      <c r="AHL1" s="1" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="AHM1" s="1" t="inlineStr">
-        <is>
-          <t>administered</t>
-        </is>
-      </c>
-      <c r="AHN1" s="1" t="inlineStr">
-        <is>
-          <t>creativity</t>
-        </is>
-      </c>
-      <c r="AHO1" s="1" t="inlineStr">
-        <is>
-          <t>comparing</t>
-        </is>
-      </c>
-      <c r="AHP1" s="1" t="inlineStr">
-        <is>
-          <t>numerous</t>
-        </is>
-      </c>
-      <c r="AHQ1" s="1" t="inlineStr">
-        <is>
-          <t>conceptualizations</t>
-        </is>
-      </c>
-      <c r="AHR1" s="1" t="inlineStr">
-        <is>
-          <t>displayed</t>
-        </is>
-      </c>
-      <c r="AHS1" s="1" t="inlineStr">
-        <is>
-          <t>saw</t>
-        </is>
-      </c>
-      <c r="AHT1" s="1" t="inlineStr">
+      <c r="AJD1" s="1" t="inlineStr">
         <is>
           <t>self-efficacious</t>
         </is>
       </c>
-      <c r="AHU1" s="1" t="inlineStr">
-        <is>
-          <t>eminent</t>
-        </is>
-      </c>
-      <c r="AHV1" s="1" t="inlineStr">
-        <is>
-          <t>self-efficacy</t>
-        </is>
-      </c>
-      <c r="AHW1" s="1" t="inlineStr">
-        <is>
-          <t>theoretical</t>
-        </is>
-      </c>
-      <c r="AHX1" s="1" t="inlineStr">
-        <is>
-          <t>psychosocial</t>
-        </is>
-      </c>
-      <c r="AHY1" s="1" t="inlineStr">
-        <is>
-          <t>phobias</t>
-        </is>
-      </c>
-      <c r="AHZ1" s="1" t="inlineStr">
-        <is>
-          <t>transition</t>
-        </is>
-      </c>
-      <c r="AIA1" s="1" t="inlineStr">
-        <is>
-          <t>unidimensional</t>
-        </is>
-      </c>
-      <c r="AIB1" s="1" t="inlineStr">
-        <is>
-          <t>fewer</t>
-        </is>
-      </c>
-      <c r="AIC1" s="1" t="inlineStr">
-        <is>
-          <t>valued</t>
-        </is>
-      </c>
-      <c r="AID1" s="1" t="inlineStr">
-        <is>
-          <t>versus</t>
-        </is>
-      </c>
-      <c r="AIE1" s="1" t="inlineStr">
-        <is>
-          <t>impacts</t>
-        </is>
-      </c>
-      <c r="AIF1" s="1" t="inlineStr">
-        <is>
-          <t>isreal</t>
-        </is>
-      </c>
-      <c r="AIG1" s="1" t="inlineStr">
-        <is>
-          <t>negatively</t>
-        </is>
-      </c>
-      <c r="AIH1" s="1" t="inlineStr">
-        <is>
-          <t>more</t>
-        </is>
-      </c>
-      <c r="AII1" s="1" t="inlineStr">
-        <is>
-          <t>lipsitt</t>
-        </is>
-      </c>
-      <c r="AIJ1" s="1" t="inlineStr">
-        <is>
-          <t>put</t>
-        </is>
-      </c>
-      <c r="AIK1" s="1" t="inlineStr">
-        <is>
-          <t>non-gifted</t>
-        </is>
-      </c>
-      <c r="AIL1" s="1" t="inlineStr">
-        <is>
-          <t>state</t>
-        </is>
-      </c>
-      <c r="AIM1" s="1" t="inlineStr">
-        <is>
-          <t>kept</t>
-        </is>
-      </c>
-      <c r="AIN1" s="1" t="inlineStr">
-        <is>
-          <t>underachievers</t>
-        </is>
-      </c>
-      <c r="AIO1" s="1" t="inlineStr">
-        <is>
-          <t>expending</t>
-        </is>
-      </c>
-      <c r="AIP1" s="1" t="inlineStr">
-        <is>
-          <t>either</t>
-        </is>
-      </c>
-      <c r="AIQ1" s="1" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="AIR1" s="1" t="inlineStr">
-        <is>
-          <t>correlates</t>
-        </is>
-      </c>
-      <c r="AIS1" s="1" t="inlineStr">
-        <is>
-          <t>tend</t>
-        </is>
-      </c>
-      <c r="AIT1" s="1" t="inlineStr">
-        <is>
-          <t>forth</t>
-        </is>
-      </c>
-      <c r="AIU1" s="1" t="inlineStr">
-        <is>
-          <t>distinguished</t>
-        </is>
-      </c>
-      <c r="AIV1" s="1" t="inlineStr">
-        <is>
-          <t>writers</t>
-        </is>
-      </c>
-      <c r="AIW1" s="1" t="inlineStr">
-        <is>
-          <t>rosenberg</t>
-        </is>
-      </c>
-      <c r="AIX1" s="1" t="inlineStr">
-        <is>
-          <t>scales-the</t>
-        </is>
-      </c>
-      <c r="AIY1" s="1" t="inlineStr">
-        <is>
-          <t>crucial</t>
-        </is>
-      </c>
-      <c r="AIZ1" s="1" t="inlineStr">
-        <is>
-          <t>scale-were</t>
-        </is>
-      </c>
-      <c r="AJA1" s="1" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="AJB1" s="1" t="inlineStr">
-        <is>
-          <t>cope</t>
-        </is>
-      </c>
-      <c r="AJC1" s="1" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="AJD1" s="1" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
       <c r="AJE1" s="1" t="inlineStr">
         <is>
-          <t>academy</t>
+          <t>advance</t>
         </is>
       </c>
       <c r="AJF1" s="1" t="inlineStr">
         <is>
-          <t>nonperfectionists</t>
+          <t>adolescence</t>
         </is>
       </c>
       <c r="AJG1" s="1" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>view</t>
         </is>
       </c>
       <c r="AJH1" s="1" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>upon</t>
         </is>
       </c>
       <c r="AJI1" s="1" t="inlineStr">
         <is>
-          <t>lahart</t>
+          <t>uniquely</t>
         </is>
       </c>
       <c r="AJJ1" s="1" t="inlineStr">
         <is>
-          <t>marten</t>
+          <t>ties</t>
         </is>
       </c>
       <c r="AJK1" s="1" t="inlineStr">
         <is>
-          <t>maladaptive</t>
+          <t>supports</t>
         </is>
       </c>
       <c r="AJL1" s="1" t="inlineStr">
         <is>
-          <t>profile</t>
+          <t>suggestions</t>
         </is>
       </c>
       <c r="AJM1" s="1" t="inlineStr">
         <is>
-          <t>takes</t>
+          <t>substantial</t>
         </is>
       </c>
       <c r="AJN1" s="1" t="inlineStr">
         <is>
-          <t>responded</t>
+          <t>serves</t>
         </is>
       </c>
       <c r="AJO1" s="1" t="inlineStr">
         <is>
-          <t>psychiatric</t>
+          <t>purposes</t>
         </is>
       </c>
       <c r="AJP1" s="1" t="inlineStr">
         <is>
-          <t>relative</t>
+          <t>proposed</t>
         </is>
       </c>
       <c r="AJQ1" s="1" t="inlineStr">
         <is>
-          <t>2-step</t>
+          <t>perspectives</t>
         </is>
       </c>
       <c r="AJR1" s="1" t="inlineStr">
         <is>
-          <t>symptomatology</t>
+          <t>intellect</t>
         </is>
       </c>
       <c r="AJS1" s="1" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>inherent</t>
         </is>
       </c>
       <c r="AJT1" s="1" t="inlineStr">
         <is>
-          <t>revealed</t>
+          <t>inasmuch</t>
         </is>
       </c>
       <c r="AJU1" s="1" t="inlineStr">
         <is>
-          <t>rosenblate</t>
+          <t>implementation</t>
         </is>
       </c>
       <c r="AJV1" s="1" t="inlineStr">
         <is>
-          <t>security</t>
+          <t>heuristic</t>
         </is>
       </c>
       <c r="AJW1" s="1" t="inlineStr">
         <is>
-          <t>self-assured</t>
+          <t>following</t>
         </is>
       </c>
       <c r="AJX1" s="1" t="inlineStr">
         <is>
-          <t>adolescence</t>
+          <t>evidences</t>
         </is>
       </c>
       <c r="AJY1" s="1" t="inlineStr">
         <is>
-          <t>self-image</t>
+          <t>evidenced</t>
         </is>
       </c>
       <c r="AJZ1" s="1" t="inlineStr">
         <is>
-          <t>young</t>
+          <t>enjoyment</t>
         </is>
       </c>
       <c r="AKA1" s="1" t="inlineStr">
         <is>
-          <t>uniformly</t>
+          <t>domain</t>
         </is>
       </c>
       <c r="AKB1" s="1" t="inlineStr">
         <is>
-          <t>state-funded</t>
+          <t>criteria</t>
         </is>
       </c>
       <c r="AKC1" s="1" t="inlineStr">
         <is>
-          <t>directions</t>
+          <t>continuity</t>
         </is>
       </c>
       <c r="AKD1" s="1" t="inlineStr">
         <is>
-          <t>upon</t>
+          <t>conceptuahzation</t>
         </is>
       </c>
       <c r="AKE1" s="1" t="inlineStr">
         <is>
-          <t>advance</t>
+          <t>cognition</t>
         </is>
       </c>
       <c r="AKF1" s="1" t="inlineStr">
         <is>
-          <t>continuity</t>
+          <t>ceonceptualization</t>
         </is>
       </c>
       <c r="AKG1" s="1" t="inlineStr">
         <is>
-          <t>domain</t>
+          <t>beyond</t>
         </is>
       </c>
       <c r="AKH1" s="1" t="inlineStr">
         <is>
-          <t>enjoyment</t>
+          <t>beginning</t>
         </is>
       </c>
       <c r="AKI1" s="1" t="inlineStr">
         <is>
-          <t>frost</t>
+          <t>area</t>
         </is>
       </c>
       <c r="AKJ1" s="1" t="inlineStr">
         <is>
-          <t>evidenced</t>
+          <t>advances</t>
         </is>
       </c>
       <c r="AKK1" s="1" t="inlineStr">
         <is>
-          <t>evidences</t>
-        </is>
-      </c>
-      <c r="AKL1" s="1" t="inlineStr">
-        <is>
-          <t>substantial</t>
-        </is>
-      </c>
-      <c r="AKM1" s="1" t="inlineStr">
-        <is>
-          <t>following</t>
-        </is>
-      </c>
-      <c r="AKN1" s="1" t="inlineStr">
-        <is>
-          <t>serves</t>
-        </is>
-      </c>
-      <c r="AKO1" s="1" t="inlineStr">
-        <is>
-          <t>forms</t>
-        </is>
-      </c>
-      <c r="AKP1" s="1" t="inlineStr">
-        <is>
-          <t>purposes</t>
-        </is>
-      </c>
-      <c r="AKQ1" s="1" t="inlineStr">
-        <is>
-          <t>proposed</t>
-        </is>
-      </c>
-      <c r="AKR1" s="1" t="inlineStr">
-        <is>
-          <t>perspectives</t>
-        </is>
-      </c>
-      <c r="AKS1" s="1" t="inlineStr">
-        <is>
-          <t>implementation</t>
-        </is>
-      </c>
-      <c r="AKT1" s="1" t="inlineStr">
-        <is>
-          <t>inasmuch</t>
-        </is>
-      </c>
-      <c r="AKU1" s="1" t="inlineStr">
-        <is>
-          <t>inherent</t>
-        </is>
-      </c>
-      <c r="AKV1" s="1" t="inlineStr">
-        <is>
           <t>inquiry</t>
-        </is>
-      </c>
-      <c r="AKW1" s="1" t="inlineStr">
-        <is>
-          <t>intellect</t>
-        </is>
-      </c>
-      <c r="AKX1" s="1" t="inlineStr">
-        <is>
-          <t>criteria</t>
-        </is>
-      </c>
-      <c r="AKY1" s="1" t="inlineStr">
-        <is>
-          <t>suggestions</t>
-        </is>
-      </c>
-      <c r="AKZ1" s="1" t="inlineStr">
-        <is>
-          <t>advances</t>
-        </is>
-      </c>
-      <c r="ALA1" s="1" t="inlineStr">
-        <is>
-          <t>supports</t>
-        </is>
-      </c>
-      <c r="ALB1" s="1" t="inlineStr">
-        <is>
-          <t>directly</t>
-        </is>
-      </c>
-      <c r="ALC1" s="1" t="inlineStr">
-        <is>
-          <t>area</t>
-        </is>
-      </c>
-      <c r="ALD1" s="1" t="inlineStr">
-        <is>
-          <t>beginning</t>
-        </is>
-      </c>
-      <c r="ALE1" s="1" t="inlineStr">
-        <is>
-          <t>beyond</t>
-        </is>
-      </c>
-      <c r="ALF1" s="1" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="ALG1" s="1" t="inlineStr">
-        <is>
-          <t>document</t>
-        </is>
-      </c>
-      <c r="ALH1" s="1" t="inlineStr">
-        <is>
-          <t>enrolled</t>
-        </is>
-      </c>
-      <c r="ALI1" s="1" t="inlineStr">
-        <is>
-          <t>view</t>
-        </is>
-      </c>
-      <c r="ALJ1" s="1" t="inlineStr">
-        <is>
-          <t>four</t>
-        </is>
-      </c>
-      <c r="ALK1" s="1" t="inlineStr">
-        <is>
-          <t>ceonceptualization</t>
-        </is>
-      </c>
-      <c r="ALL1" s="1" t="inlineStr">
-        <is>
-          <t>uniquely</t>
-        </is>
-      </c>
-      <c r="ALM1" s="1" t="inlineStr">
-        <is>
-          <t>indices</t>
-        </is>
-      </c>
-      <c r="ALN1" s="1" t="inlineStr">
-        <is>
-          <t>cognition</t>
-        </is>
-      </c>
-      <c r="ALO1" s="1" t="inlineStr">
-        <is>
-          <t>conceptuahzation</t>
-        </is>
-      </c>
-      <c r="ALP1" s="1" t="inlineStr">
-        <is>
-          <t>ties</t>
-        </is>
-      </c>
-      <c r="ALQ1" s="1" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="ALR1" s="1" t="inlineStr">
-        <is>
-          <t>hopkins</t>
-        </is>
-      </c>
-      <c r="ALS1" s="1" t="inlineStr">
-        <is>
-          <t>heuristic</t>
         </is>
       </c>
     </row>
@@ -5474,79 +5304,79 @@
         <v>2004</v>
       </c>
       <c r="C2" t="n">
-        <v>2.84</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>2.84</v>
+        <v>1.09</v>
       </c>
       <c r="E2" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="F2" t="n">
-        <v>1.03</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9099999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="H2" t="n">
-        <v>0.88</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="L2" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7600000000000001</v>
+      </c>
+      <c r="N2" t="n">
         <v>0.76</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.7500000000000001</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.75</v>
       </c>
       <c r="O2" t="n">
         <v>0.75</v>
       </c>
       <c r="P2" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6900000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6400000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="U2" t="n">
-        <v>0.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="X2" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="Z2" t="n">
         <v>0.53</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="AB2" t="n">
         <v>0.51</v>
@@ -5558,43 +5388,43 @@
         <v>0.51</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.45</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="AP2" t="n">
         <v>0.43</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="AR2" t="n">
         <v>0.42</v>
@@ -5630,31 +5460,31 @@
         <v>0.41</v>
       </c>
       <c r="BC2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="BG2" t="n">
         <v>0.4</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BH2" t="n">
         <v>0.4</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BI2" t="n">
         <v>0.4</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BJ2" t="n">
         <v>0.4</v>
       </c>
-      <c r="BG2" t="n">
-        <v>0.3900000000000001</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0.39</v>
-      </c>
       <c r="BK2" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="BL2" t="n">
         <v>0.39</v>
@@ -5663,22 +5493,22 @@
         <v>0.39</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.38</v>
+        <v>0.3700000000000001</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.3799999999999999</v>
+        <v>0.37</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.3700000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="BT2" t="n">
         <v>0.37</v>
@@ -5693,7 +5523,7 @@
         <v>0.37</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.3699999999999999</v>
+        <v>0.37</v>
       </c>
       <c r="BY2" t="n">
         <v>0.36</v>
@@ -5714,7 +5544,7 @@
         <v>0.36</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="CF2" t="n">
         <v>0.35</v>
@@ -5753,7 +5583,7 @@
         <v>0.34</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="CS2" t="n">
         <v>0.33</v>
@@ -5762,16 +5592,16 @@
         <v>0.33</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="CY2" t="n">
         <v>0.32</v>
@@ -5780,19 +5610,19 @@
         <v>0.32</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="DF2" t="n">
         <v>0.31</v>
@@ -5801,7 +5631,7 @@
         <v>0.31</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="DI2" t="n">
         <v>0.3</v>
@@ -5819,13 +5649,13 @@
         <v>0.3</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="DQ2" t="n">
         <v>0.29</v>
@@ -5837,16 +5667,16 @@
         <v>0.29</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="DX2" t="n">
         <v>0.28</v>
@@ -5861,13 +5691,13 @@
         <v>0.28</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="EE2" t="n">
         <v>0.27</v>
@@ -5888,10 +5718,10 @@
         <v>0.27</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="EM2" t="n">
         <v>0.26</v>
@@ -5918,19 +5748,19 @@
         <v>0.26</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="EZ2" t="n">
         <v>0.25</v>
@@ -5942,19 +5772,19 @@
         <v>0.25</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="FH2" t="n">
         <v>0.24</v>
@@ -5984,22 +5814,22 @@
         <v>0.24</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="FW2" t="n">
         <v>0.23</v>
@@ -6035,25 +5865,25 @@
         <v>0.23</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GO2" t="n">
         <v>0.22</v>
@@ -6062,28 +5892,28 @@
         <v>0.22</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="GS2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="GY2" t="n">
         <v>0.21</v>
@@ -6101,19 +5931,19 @@
         <v>0.21</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HI2" t="n">
         <v>0.2</v>
@@ -6152,31 +5982,31 @@
         <v>0.2</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="HZ2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="ID2" t="n">
         <v>0.19</v>
@@ -6215,28 +6045,28 @@
         <v>0.19</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IV2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IX2" t="n">
         <v>0.18</v>
@@ -6269,46 +6099,46 @@
         <v>0.18</v>
       </c>
       <c r="JH2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JJ2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JN2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JO2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JP2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JQ2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JR2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JS2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JT2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JV2" t="n">
         <v>0.17</v>
@@ -6338,40 +6168,40 @@
         <v>0.17</v>
       </c>
       <c r="KE2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KF2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KG2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KH2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KI2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KK2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KL2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KM2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KN2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KO2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KQ2" t="n">
         <v>0.16</v>
@@ -6401,40 +6231,40 @@
         <v>0.16</v>
       </c>
       <c r="KZ2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LC2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LE2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LG2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LH2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LI2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LJ2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LL2" t="n">
         <v>0.15</v>
@@ -6464,43 +6294,43 @@
         <v>0.15</v>
       </c>
       <c r="LU2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LV2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LX2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LZ2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MA2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MB2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MC2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MD2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="ME2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MF2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MG2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MH2" t="n">
         <v>0.14</v>
@@ -6587,127 +6417,127 @@
         <v>0.14</v>
       </c>
       <c r="NJ2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NK2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NM2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NO2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NP2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NS2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NU2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NX2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NZ2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="OA2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="OB2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="OC2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="OE2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OG2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OH2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OJ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OL2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ON2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OO2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OP2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OQ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OR2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OT2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OU2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OV2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OW2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OX2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OY2" t="n">
         <v>0.12</v>
@@ -6854,19 +6684,19 @@
         <v>0.12</v>
       </c>
       <c r="QU2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QV2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QW2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QX2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QY2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QZ2" t="n">
         <v>0.11</v>
@@ -6920,73 +6750,73 @@
         <v>0.11</v>
       </c>
       <c r="RQ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RR2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RS2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RT2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RU2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RV2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RW2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RX2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RY2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RZ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SA2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SB2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SC2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SD2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SE2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SF2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SG2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SH2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SI2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SJ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SK2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SL2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SM2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SN2" t="n">
         <v>0.1</v>
@@ -7256,34 +7086,34 @@
         <v>0.1</v>
       </c>
       <c r="VY2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="VZ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WA2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WB2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WC2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WD2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WE2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WF2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WG2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WH2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WI2" t="n">
         <v>0.09</v>
@@ -7967,49 +7797,49 @@
         <v>0.09</v>
       </c>
       <c r="AFB2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AFC2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AFD2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AFE2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AFF2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AFG2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AFH2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AFI2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AFJ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AFK2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AFL2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AFM2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AFN2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AFO2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AFP2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AFQ2" t="n">
         <v>0.08</v>
@@ -8276,16 +8106,16 @@
         <v>0.08</v>
       </c>
       <c r="AJA2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AJB2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AJC2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AJD2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AJE2" t="n">
         <v>0.07000000000000001</v>
@@ -8384,108 +8214,6 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AKK2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKL2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKM2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKN2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKO2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKP2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKQ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKR2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKS2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKT2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKU2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKV2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKW2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKX2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKY2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AKZ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALA2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALB2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALC2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALD2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALE2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALF2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALG2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALH2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALI2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALJ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALK2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALL2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALM2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALN2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALO2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALP2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALQ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALR2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALS2" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
